--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -54,23 +54,26 @@
     <t>Html searchProject, projectDetail , add engineer 
 to project screen.</t>
   </si>
+  <si>
+    <t>-Review và update 4 diagram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,23 +128,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -206,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,10 +241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,40 +450,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:57" ht="45.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:57" ht="0.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -501,70 +502,70 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:57">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,18 +616,18 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+    </row>
+    <row r="5" spans="1:57">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -672,18 +673,18 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+    </row>
+    <row r="6" spans="1:57">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -729,18 +730,18 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+    </row>
+    <row r="7" spans="1:57">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -786,18 +787,18 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+    </row>
+    <row r="8" spans="1:57">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -843,18 +844,18 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+    </row>
+    <row r="9" spans="1:57">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -900,18 +901,18 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -960,18 +961,18 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+    </row>
+    <row r="11" spans="1:57">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1017,18 +1018,18 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="6"/>
-      <c r="BB11" s="6"/>
-      <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="6"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+    </row>
+    <row r="12" spans="1:57">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1074,18 +1075,18 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+    </row>
+    <row r="13" spans="1:57">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1131,18 +1132,18 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+    </row>
+    <row r="14" spans="1:57">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1188,18 +1189,18 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+    </row>
+    <row r="15" spans="1:57">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1245,18 +1246,18 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+    </row>
+    <row r="16" spans="1:57">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1305,18 +1306,18 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="6"/>
-      <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+    </row>
+    <row r="17" spans="1:57">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1362,18 +1363,18 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+    </row>
+    <row r="18" spans="1:57">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1419,18 +1420,18 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+    </row>
+    <row r="19" spans="1:57">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1476,18 +1477,18 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+    </row>
+    <row r="20" spans="1:57">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1533,18 +1534,18 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+    </row>
+    <row r="21" spans="1:57">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1590,18 +1591,18 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+    </row>
+    <row r="22" spans="1:57">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1612,14 +1613,16 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1654,18 +1657,18 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+    </row>
+    <row r="23" spans="1:57">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1711,18 +1714,18 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+    </row>
+    <row r="24" spans="1:57">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1768,18 +1771,18 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+    </row>
+    <row r="25" spans="1:57">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1825,18 +1828,18 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+    </row>
+    <row r="26" spans="1:57">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1882,18 +1885,18 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+    </row>
+    <row r="27" spans="1:57">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1939,19 +1942,59 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="6"/>
-      <c r="AW27" s="6"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
-      <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="H4:L9"/>
+    <mergeCell ref="M4:Q9"/>
+    <mergeCell ref="R4:V9"/>
+    <mergeCell ref="W4:AA9"/>
+    <mergeCell ref="AB4:AF9"/>
+    <mergeCell ref="AG4:AK9"/>
+    <mergeCell ref="AL4:AP9"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
     <mergeCell ref="AL16:AP21"/>
     <mergeCell ref="AQ22:AU27"/>
     <mergeCell ref="AV22:AZ27"/>
@@ -1968,70 +2011,30 @@
     <mergeCell ref="AG22:AK27"/>
     <mergeCell ref="AL22:AP27"/>
     <mergeCell ref="AQ10:AU15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="H4:L9"/>
-    <mergeCell ref="M4:Q9"/>
-    <mergeCell ref="R4:V9"/>
-    <mergeCell ref="W4:AA9"/>
-    <mergeCell ref="AB4:AF9"/>
-    <mergeCell ref="AG4:AK9"/>
-    <mergeCell ref="AL4:AP9"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -57,23 +57,30 @@
   <si>
     <t>-Review và update 4 diagram</t>
   </si>
+  <si>
+    <t>-Review và sửa Usecase diagram, ERD
+-Review database, class diagram</t>
+  </si>
+  <si>
+    <t>-HTML feedback.jsp, appraisal.jsp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,13 +126,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -137,17 +156,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -209,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,40 +465,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="45.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:57" ht="0.75" customHeight="1">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -502,74 +517,74 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:57">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-    </row>
-    <row r="4" spans="1:57">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
@@ -616,18 +631,18 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-    </row>
-    <row r="5" spans="1:57">
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -673,18 +688,18 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -730,18 +745,18 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-    </row>
-    <row r="7" spans="1:57">
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -787,18 +802,18 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-    </row>
-    <row r="8" spans="1:57">
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -844,18 +859,18 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-    </row>
-    <row r="9" spans="1:57">
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -901,18 +916,18 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-    </row>
-    <row r="10" spans="1:57">
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -961,18 +976,18 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-    </row>
-    <row r="11" spans="1:57">
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1018,18 +1033,18 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-    </row>
-    <row r="12" spans="1:57">
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1075,18 +1090,18 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-    </row>
-    <row r="13" spans="1:57">
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1132,18 +1147,18 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-    </row>
-    <row r="14" spans="1:57">
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1189,18 +1204,18 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-    </row>
-    <row r="15" spans="1:57">
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1246,22 +1261,24 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-    </row>
-    <row r="16" spans="1:57">
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,7 +1288,9 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1306,18 +1325,18 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-    </row>
-    <row r="17" spans="1:57">
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1363,18 +1382,18 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-    </row>
-    <row r="18" spans="1:57">
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1420,18 +1439,18 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-    </row>
-    <row r="19" spans="1:57">
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1477,18 +1496,18 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-    </row>
-    <row r="20" spans="1:57">
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1534,18 +1553,18 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-    </row>
-    <row r="21" spans="1:57">
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+      <c r="BE20" s="8"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1591,18 +1610,18 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-    </row>
-    <row r="22" spans="1:57">
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1632,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="7"/>
@@ -1657,18 +1676,18 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-    </row>
-    <row r="23" spans="1:57">
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1714,18 +1733,18 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-    </row>
-    <row r="24" spans="1:57">
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1771,18 +1790,18 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-    </row>
-    <row r="25" spans="1:57">
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1828,18 +1847,18 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-    </row>
-    <row r="26" spans="1:57">
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1885,18 +1904,18 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-    </row>
-    <row r="27" spans="1:57">
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1942,26 +1961,52 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AL16:AP21"/>
+    <mergeCell ref="AQ22:AU27"/>
+    <mergeCell ref="AV22:AZ27"/>
+    <mergeCell ref="BA22:BE27"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="AQ16:AU21"/>
+    <mergeCell ref="AV16:AZ21"/>
+    <mergeCell ref="BA16:BE21"/>
+    <mergeCell ref="H22:L27"/>
+    <mergeCell ref="M22:Q27"/>
+    <mergeCell ref="R22:V27"/>
+    <mergeCell ref="W22:AA27"/>
+    <mergeCell ref="AB22:AF27"/>
+    <mergeCell ref="AG22:AK27"/>
+    <mergeCell ref="AL22:AP27"/>
+    <mergeCell ref="AQ10:AU15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:AZ3"/>
     <mergeCell ref="BA3:BE3"/>
@@ -1978,63 +2023,37 @@
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AG3:AK3"/>
     <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AL16:AP21"/>
-    <mergeCell ref="AQ22:AU27"/>
-    <mergeCell ref="AV22:AZ27"/>
-    <mergeCell ref="BA22:BE27"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="AQ16:AU21"/>
-    <mergeCell ref="AV16:AZ21"/>
-    <mergeCell ref="BA16:BE21"/>
-    <mergeCell ref="H22:L27"/>
-    <mergeCell ref="M22:Q27"/>
-    <mergeCell ref="R22:V27"/>
-    <mergeCell ref="W22:AA27"/>
-    <mergeCell ref="AB22:AF27"/>
-    <mergeCell ref="AG22:AK27"/>
-    <mergeCell ref="AL22:AP27"/>
-    <mergeCell ref="AQ10:AU15"/>
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>-HTML feedback.jsp, appraisal.jsp</t>
+  </si>
+  <si>
+    <t>Review &amp; update use case, class diagram, database</t>
   </si>
 </sst>
 </file>
@@ -135,18 +138,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -156,11 +147,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:L21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,25 +481,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
@@ -518,73 +521,73 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
@@ -631,16 +634,16 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -688,16 +691,16 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
@@ -745,16 +748,16 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
@@ -802,16 +805,16 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
@@ -859,16 +862,16 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
@@ -916,16 +919,16 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -941,11 +944,13 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="M10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -976,16 +981,16 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
@@ -998,11 +1003,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1033,16 +1038,16 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -1055,11 +1060,11 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1090,16 +1095,16 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -1112,11 +1117,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1147,16 +1152,16 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
@@ -1169,11 +1174,11 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1204,16 +1209,16 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
@@ -1226,11 +1231,11 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1261,22 +1266,22 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
-      <c r="BD15" s="8"/>
-      <c r="BE15" s="8"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3"/>
@@ -1288,7 +1293,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="3"/>
@@ -1325,16 +1330,16 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
@@ -1382,16 +1387,16 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
@@ -1439,16 +1444,16 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="8"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
-      <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
-      <c r="BE18" s="8"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
@@ -1496,16 +1501,16 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="8"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
@@ -1553,16 +1558,16 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
-      <c r="BE20" s="8"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -1610,16 +1615,16 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1632,7 +1637,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="7"/>
@@ -1676,16 +1681,16 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
@@ -1733,16 +1738,16 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
@@ -1790,16 +1795,16 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
@@ -1847,16 +1852,16 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
@@ -1904,16 +1909,16 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="8"/>
-      <c r="AW26" s="8"/>
-      <c r="AX26" s="8"/>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="8"/>
-      <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
@@ -1961,19 +1966,59 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="8"/>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="8"/>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="H4:L9"/>
+    <mergeCell ref="M4:Q9"/>
+    <mergeCell ref="R4:V9"/>
+    <mergeCell ref="W4:AA9"/>
+    <mergeCell ref="AB4:AF9"/>
+    <mergeCell ref="AG4:AK9"/>
+    <mergeCell ref="AL4:AP9"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
     <mergeCell ref="AL16:AP21"/>
     <mergeCell ref="AQ22:AU27"/>
     <mergeCell ref="AV22:AZ27"/>
@@ -1990,46 +2035,6 @@
     <mergeCell ref="AG22:AK27"/>
     <mergeCell ref="AL22:AP27"/>
     <mergeCell ref="AQ10:AU15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="H4:L9"/>
-    <mergeCell ref="M4:Q9"/>
-    <mergeCell ref="R4:V9"/>
-    <mergeCell ref="W4:AA9"/>
-    <mergeCell ref="AB4:AF9"/>
-    <mergeCell ref="AG4:AK9"/>
-    <mergeCell ref="AL4:AP9"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -51,10 +51,6 @@
     <t>-Không có sản phẩm, support là chính</t>
   </si>
   <si>
-    <t>Html searchProject, projectDetail , add engineer 
-to project screen.</t>
-  </si>
-  <si>
     <t>-Review và update 4 diagram</t>
   </si>
   <si>
@@ -66,6 +62,23 @@
   </si>
   <si>
     <t>Review &amp; update use case, class diagram, database</t>
+  </si>
+  <si>
+    <t>Review &amp; update use case, class diagram,
+ database</t>
+  </si>
+  <si>
+    <t>Thứ 3 - 26/05/2015</t>
+  </si>
+  <si>
+    <t>- HTML  searchProject.jsp
+- HTML projectDetail.jsp
+- HTML  add engineer to project screen.jsp</t>
+  </si>
+  <si>
+    <t>- HTML CreateProject.jsp
+- HTML SearchAccount.jsp ( View, Edit)
+- HTML CreateAccount.jsp</t>
   </si>
 </sst>
 </file>
@@ -154,6 +167,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -161,9 +177,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,57 +534,59 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="9" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
       <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
@@ -587,8 +602,8 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -599,12 +614,16 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -944,13 +963,13 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="12" t="s">
-        <v>14</v>
+      <c r="M10" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1003,11 +1022,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1060,11 +1079,11 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1117,11 +1136,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1174,11 +1193,11 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1231,11 +1250,11 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1281,8 +1300,8 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>13</v>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1294,7 +1313,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1645,7 +1664,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -78,7 +78,8 @@
   <si>
     <t>- HTML CreateProject.jsp
 - HTML SearchAccount.jsp ( View, Edit)
-- HTML CreateAccount.jsp</t>
+- HTML CreateAccount.jsp
+- Review ERD</t>
   </si>
 </sst>
 </file>
@@ -151,32 +152,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +486,7 @@
   <dimension ref="A1:BE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:V9"/>
+      <selection activeCell="R10" sqref="R10:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,25 +495,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
@@ -534,94 +535,94 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="9" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="3"/>
@@ -653,16 +654,16 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -670,11 +671,11 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -710,16 +711,16 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
@@ -727,11 +728,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -767,16 +768,16 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
@@ -784,11 +785,11 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -824,16 +825,16 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
@@ -841,11 +842,11 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -881,16 +882,16 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
@@ -898,11 +899,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -938,16 +939,16 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -958,18 +959,18 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1000,16 +1001,16 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
@@ -1017,16 +1018,16 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1057,16 +1058,16 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -1074,16 +1075,16 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1114,16 +1115,16 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -1131,16 +1132,16 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1171,16 +1172,16 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
@@ -1188,16 +1189,16 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1228,16 +1229,16 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
@@ -1245,16 +1246,16 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1285,34 +1286,34 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N16" s="3"/>
@@ -1349,16 +1350,16 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
@@ -1366,11 +1367,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1406,16 +1407,16 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
@@ -1423,11 +1424,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1463,16 +1464,16 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
@@ -1480,11 +1481,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1520,16 +1521,16 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
@@ -1537,11 +1538,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1577,16 +1578,16 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -1594,11 +1595,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1634,16 +1635,16 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1656,13 +1657,13 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1700,16 +1701,16 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
@@ -1717,11 +1718,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1757,16 +1758,16 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
@@ -1774,11 +1775,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1814,16 +1815,16 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
@@ -1831,11 +1832,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1871,16 +1872,16 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
@@ -1888,11 +1889,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1928,16 +1929,16 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
@@ -1945,11 +1946,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1985,26 +1986,52 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AL16:AP21"/>
+    <mergeCell ref="AQ22:AU27"/>
+    <mergeCell ref="AV22:AZ27"/>
+    <mergeCell ref="BA22:BE27"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="AQ16:AU21"/>
+    <mergeCell ref="AV16:AZ21"/>
+    <mergeCell ref="BA16:BE21"/>
+    <mergeCell ref="H22:L27"/>
+    <mergeCell ref="M22:Q27"/>
+    <mergeCell ref="R22:V27"/>
+    <mergeCell ref="W22:AA27"/>
+    <mergeCell ref="AB22:AF27"/>
+    <mergeCell ref="AG22:AK27"/>
+    <mergeCell ref="AL22:AP27"/>
+    <mergeCell ref="AQ10:AU15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:AZ3"/>
     <mergeCell ref="BA3:BE3"/>
@@ -2021,39 +2048,13 @@
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AG3:AK3"/>
     <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AL16:AP21"/>
-    <mergeCell ref="AQ22:AU27"/>
-    <mergeCell ref="AV22:AZ27"/>
-    <mergeCell ref="BA22:BE27"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="AQ16:AU21"/>
-    <mergeCell ref="AV16:AZ21"/>
-    <mergeCell ref="BA16:BE21"/>
-    <mergeCell ref="H22:L27"/>
-    <mergeCell ref="M22:Q27"/>
-    <mergeCell ref="R22:V27"/>
-    <mergeCell ref="W22:AA27"/>
-    <mergeCell ref="AB22:AF27"/>
-    <mergeCell ref="AG22:AK27"/>
-    <mergeCell ref="AL22:AP27"/>
-    <mergeCell ref="AQ10:AU15"/>
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -80,6 +80,9 @@
 - HTML SearchAccount.jsp ( View, Edit)
 - HTML CreateAccount.jsp
 - Review ERD</t>
+  </si>
+  <si>
+    <t>update use case, erd</t>
   </si>
 </sst>
 </file>
@@ -152,32 +155,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:V15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,25 +498,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
@@ -535,94 +538,94 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="3"/>
@@ -654,16 +657,16 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -671,11 +674,11 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -711,16 +714,16 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
@@ -728,11 +731,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -768,16 +771,16 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
@@ -785,11 +788,11 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -825,16 +828,16 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
@@ -842,11 +845,11 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -882,16 +885,16 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
@@ -899,11 +902,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -939,16 +942,16 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -959,19 +962,21 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="3"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1001,16 +1006,16 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
@@ -1018,16 +1023,16 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1058,16 +1063,16 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -1075,16 +1080,16 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1115,16 +1120,16 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -1132,16 +1137,16 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1172,16 +1177,16 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
@@ -1189,16 +1194,16 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1229,16 +1234,16 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
@@ -1246,16 +1251,16 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1286,34 +1291,34 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="9"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="N16" s="3"/>
@@ -1350,16 +1355,16 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
@@ -1367,11 +1372,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1407,16 +1412,16 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
@@ -1424,11 +1429,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1464,16 +1469,16 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
@@ -1481,11 +1486,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1521,16 +1526,16 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
@@ -1538,11 +1543,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1578,16 +1583,16 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -1595,11 +1600,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1635,16 +1640,16 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1657,13 +1662,13 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1701,16 +1706,16 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
@@ -1718,11 +1723,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1758,16 +1763,16 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
@@ -1775,11 +1780,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1815,16 +1820,16 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="9"/>
-      <c r="AW24" s="9"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
-      <c r="BA24" s="9"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
@@ -1832,11 +1837,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1872,16 +1877,16 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="9"/>
-      <c r="AW25" s="9"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
@@ -1889,11 +1894,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1929,16 +1934,16 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
@@ -1946,11 +1951,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1986,19 +1991,59 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="9"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
-      <c r="BA27" s="9"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="H4:L9"/>
+    <mergeCell ref="M4:Q9"/>
+    <mergeCell ref="R4:V9"/>
+    <mergeCell ref="W4:AA9"/>
+    <mergeCell ref="AB4:AF9"/>
+    <mergeCell ref="AG4:AK9"/>
+    <mergeCell ref="AL4:AP9"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
     <mergeCell ref="AL16:AP21"/>
     <mergeCell ref="AQ22:AU27"/>
     <mergeCell ref="AV22:AZ27"/>
@@ -2015,46 +2060,6 @@
     <mergeCell ref="AG22:AK27"/>
     <mergeCell ref="AL22:AP27"/>
     <mergeCell ref="AQ10:AU15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="H4:L9"/>
-    <mergeCell ref="M4:Q9"/>
-    <mergeCell ref="R4:V9"/>
-    <mergeCell ref="W4:AA9"/>
-    <mergeCell ref="AB4:AF9"/>
-    <mergeCell ref="AG4:AK9"/>
-    <mergeCell ref="AL4:AP9"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -84,23 +84,27 @@
   <si>
     <t>update use case, erd</t>
   </si>
+  <si>
+    <t>-HTML CreateKnowledge.jsp
+-Review và update usecase, ERD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,32 +159,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,10 +278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,40 +487,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:V21"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:57" ht="45.75" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:57" ht="0.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -537,95 +539,95 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:57">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="9" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="3"/>
@@ -657,28 +659,28 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+    </row>
+    <row r="5" spans="1:57">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -714,28 +716,28 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+    </row>
+    <row r="6" spans="1:57">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -771,28 +773,28 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+    </row>
+    <row r="7" spans="1:57">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -828,28 +830,28 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+    </row>
+    <row r="8" spans="1:57">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -885,28 +887,28 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+    </row>
+    <row r="9" spans="1:57">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -942,18 +944,18 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -962,18 +964,18 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1006,33 +1008,33 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+    </row>
+    <row r="11" spans="1:57">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1063,33 +1065,33 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+    </row>
+    <row r="12" spans="1:57">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1120,33 +1122,33 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+    </row>
+    <row r="13" spans="1:57">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1177,33 +1179,33 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+    </row>
+    <row r="14" spans="1:57">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1234,33 +1236,33 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+    </row>
+    <row r="15" spans="1:57">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1291,34 +1293,34 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+    </row>
+    <row r="16" spans="1:57">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N16" s="3"/>
@@ -1355,28 +1357,28 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+    </row>
+    <row r="17" spans="1:57">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1412,28 +1414,28 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+    </row>
+    <row r="18" spans="1:57">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1469,28 +1471,28 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+    </row>
+    <row r="19" spans="1:57">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1526,28 +1528,28 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+    </row>
+    <row r="20" spans="1:57">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1583,28 +1585,28 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+    </row>
+    <row r="21" spans="1:57">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1640,18 +1642,18 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+    </row>
+    <row r="22" spans="1:57">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1662,13 +1664,13 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +1678,9 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -1706,28 +1710,28 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+    </row>
+    <row r="23" spans="1:57">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1763,28 +1767,28 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+    </row>
+    <row r="24" spans="1:57">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1820,28 +1824,28 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+    </row>
+    <row r="25" spans="1:57">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1877,28 +1881,28 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+    </row>
+    <row r="26" spans="1:57">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1934,28 +1938,28 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+    </row>
+    <row r="27" spans="1:57">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1991,26 +1995,52 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AL16:AP21"/>
+    <mergeCell ref="AQ22:AU27"/>
+    <mergeCell ref="AV22:AZ27"/>
+    <mergeCell ref="BA22:BE27"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="AQ16:AU21"/>
+    <mergeCell ref="AV16:AZ21"/>
+    <mergeCell ref="BA16:BE21"/>
+    <mergeCell ref="H22:L27"/>
+    <mergeCell ref="M22:Q27"/>
+    <mergeCell ref="R22:V27"/>
+    <mergeCell ref="W22:AA27"/>
+    <mergeCell ref="AB22:AF27"/>
+    <mergeCell ref="AG22:AK27"/>
+    <mergeCell ref="AL22:AP27"/>
+    <mergeCell ref="AQ10:AU15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:AZ3"/>
     <mergeCell ref="BA3:BE3"/>
@@ -2027,63 +2057,37 @@
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AG3:AK3"/>
     <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AL16:AP21"/>
-    <mergeCell ref="AQ22:AU27"/>
-    <mergeCell ref="AV22:AZ27"/>
-    <mergeCell ref="BA22:BE27"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="AQ16:AU21"/>
-    <mergeCell ref="AV16:AZ21"/>
-    <mergeCell ref="BA16:BE21"/>
-    <mergeCell ref="H22:L27"/>
-    <mergeCell ref="M22:Q27"/>
-    <mergeCell ref="R22:V27"/>
-    <mergeCell ref="W22:AA27"/>
-    <mergeCell ref="AB22:AF27"/>
-    <mergeCell ref="AG22:AK27"/>
-    <mergeCell ref="AL22:AP27"/>
-    <mergeCell ref="AQ10:AU15"/>
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -88,23 +88,29 @@
     <t>-HTML CreateKnowledge.jsp
 -Review và update usecase, ERD</t>
   </si>
+  <si>
+    <t>5/27/2015</t>
+  </si>
+  <si>
+    <t>update use case, erd, class diagram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,32 +165,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +284,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,40 +495,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="45.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:57" ht="0.75" customHeight="1">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -539,95 +547,97 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:57">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-    </row>
-    <row r="4" spans="1:57">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="3"/>
@@ -659,28 +669,28 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-    </row>
-    <row r="5" spans="1:57">
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -716,28 +726,28 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -773,28 +783,28 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-    </row>
-    <row r="7" spans="1:57">
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -830,28 +840,28 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-    </row>
-    <row r="8" spans="1:57">
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -887,28 +897,28 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
-    </row>
-    <row r="9" spans="1:57">
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -944,18 +954,18 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
-    </row>
-    <row r="10" spans="1:57">
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -964,18 +974,18 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
       <c r="R10" s="3" t="s">
         <v>18</v>
       </c>
@@ -983,7 +993,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -1008,33 +1020,33 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-    </row>
-    <row r="11" spans="1:57">
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1065,33 +1077,33 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-    </row>
-    <row r="12" spans="1:57">
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1122,33 +1134,33 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-    </row>
-    <row r="13" spans="1:57">
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1179,33 +1191,33 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-    </row>
-    <row r="14" spans="1:57">
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1236,33 +1248,33 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-    </row>
-    <row r="15" spans="1:57">
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1293,34 +1305,34 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="9"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-    </row>
-    <row r="16" spans="1:57">
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N16" s="3"/>
@@ -1357,28 +1369,28 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-    </row>
-    <row r="17" spans="1:57">
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1414,28 +1426,28 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-    </row>
-    <row r="18" spans="1:57">
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1471,28 +1483,28 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-    </row>
-    <row r="19" spans="1:57">
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1528,28 +1540,28 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-    </row>
-    <row r="20" spans="1:57">
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1585,28 +1597,28 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-    </row>
-    <row r="21" spans="1:57">
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1642,18 +1654,18 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-    </row>
-    <row r="22" spans="1:57">
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,13 +1676,13 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1678,7 +1690,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="S22" s="3"/>
@@ -1710,28 +1722,28 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-    </row>
-    <row r="23" spans="1:57">
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1767,28 +1779,28 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-    </row>
-    <row r="24" spans="1:57">
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1824,28 +1836,28 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="9"/>
-      <c r="AW24" s="9"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
-      <c r="BA24" s="9"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-    </row>
-    <row r="25" spans="1:57">
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1881,28 +1893,28 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="9"/>
-      <c r="AW25" s="9"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-    </row>
-    <row r="26" spans="1:57">
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1938,28 +1950,28 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-    </row>
-    <row r="27" spans="1:57">
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1995,19 +2007,59 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="9"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
-      <c r="BA27" s="9"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="H4:L9"/>
+    <mergeCell ref="M4:Q9"/>
+    <mergeCell ref="R4:V9"/>
+    <mergeCell ref="W4:AA9"/>
+    <mergeCell ref="AB4:AF9"/>
+    <mergeCell ref="AG4:AK9"/>
+    <mergeCell ref="AL4:AP9"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
     <mergeCell ref="AL16:AP21"/>
     <mergeCell ref="AQ22:AU27"/>
     <mergeCell ref="AV22:AZ27"/>
@@ -2024,70 +2076,30 @@
     <mergeCell ref="AG22:AK27"/>
     <mergeCell ref="AL22:AP27"/>
     <mergeCell ref="AQ10:AU15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="H4:L9"/>
-    <mergeCell ref="M4:Q9"/>
-    <mergeCell ref="R4:V9"/>
-    <mergeCell ref="W4:AA9"/>
-    <mergeCell ref="AB4:AF9"/>
-    <mergeCell ref="AG4:AK9"/>
-    <mergeCell ref="AL4:AP9"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -119,23 +119,27 @@
   <si>
     <t>- Code Create Account</t>
   </si>
+  <si>
+    <t>-Supporting
+-Learning algorithm, prepare SQL for suggest system</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,18 +196,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -212,6 +204,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,10 +309,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,40 +518,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4:AF9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:57" ht="45.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:57" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:57" ht="0.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -568,80 +570,80 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:57">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6" t="s">
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6" t="s">
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -702,18 +704,18 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+    </row>
+    <row r="5" spans="1:57">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -759,18 +761,18 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+    </row>
+    <row r="6" spans="1:57">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -816,18 +818,18 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+    </row>
+    <row r="7" spans="1:57">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -873,18 +875,18 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+    </row>
+    <row r="8" spans="1:57">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -930,18 +932,18 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+    </row>
+    <row r="9" spans="1:57">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -987,18 +989,18 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1053,18 +1055,18 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+    </row>
+    <row r="11" spans="1:57">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1110,18 +1112,18 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
-      <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+    </row>
+    <row r="12" spans="1:57">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1167,18 +1169,18 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+    </row>
+    <row r="13" spans="1:57">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1224,18 +1226,18 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+    </row>
+    <row r="14" spans="1:57">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1281,18 +1283,18 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+    </row>
+    <row r="15" spans="1:57">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1338,22 +1340,22 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
-      <c r="BD15" s="8"/>
-      <c r="BE15" s="8"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+    </row>
+    <row r="16" spans="1:57">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3"/>
@@ -1365,7 +1367,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="N16" s="3"/>
@@ -1402,18 +1404,18 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+    </row>
+    <row r="17" spans="1:57">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1459,18 +1461,18 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+    </row>
+    <row r="18" spans="1:57">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1516,18 +1518,18 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="8"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
-      <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
-      <c r="BE18" s="8"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+    </row>
+    <row r="19" spans="1:57">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1573,18 +1575,18 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="8"/>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+    </row>
+    <row r="20" spans="1:57">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1630,18 +1632,18 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
-      <c r="BE20" s="8"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+    </row>
+    <row r="21" spans="1:57">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1687,18 +1689,18 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+    </row>
+    <row r="22" spans="1:57">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1711,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="7"/>
@@ -1744,7 +1746,9 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
+      <c r="AG22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -1759,18 +1763,18 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+    </row>
+    <row r="23" spans="1:57">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1816,18 +1820,18 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+    </row>
+    <row r="24" spans="1:57">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1873,18 +1877,18 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+    </row>
+    <row r="25" spans="1:57">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1930,18 +1934,18 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+    </row>
+    <row r="26" spans="1:57">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1987,18 +1991,18 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="8"/>
-      <c r="AW26" s="8"/>
-      <c r="AX26" s="8"/>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="8"/>
-      <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+    </row>
+    <row r="27" spans="1:57">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2044,19 +2048,59 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="8"/>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="8"/>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C10:G15"/>
+    <mergeCell ref="C16:G21"/>
+    <mergeCell ref="C22:G27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G9"/>
+    <mergeCell ref="H16:L21"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="H4:L9"/>
+    <mergeCell ref="M4:Q9"/>
+    <mergeCell ref="R4:V9"/>
+    <mergeCell ref="W4:AA9"/>
+    <mergeCell ref="AB4:AF9"/>
+    <mergeCell ref="AG4:AK9"/>
+    <mergeCell ref="AL4:AP9"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ4:AU9"/>
+    <mergeCell ref="AV4:AZ9"/>
+    <mergeCell ref="BA4:BE9"/>
+    <mergeCell ref="H10:L15"/>
+    <mergeCell ref="M10:Q15"/>
+    <mergeCell ref="R10:V15"/>
+    <mergeCell ref="W10:AA15"/>
+    <mergeCell ref="AB10:AF15"/>
+    <mergeCell ref="AG10:AK15"/>
+    <mergeCell ref="AL10:AP15"/>
+    <mergeCell ref="BA10:BE15"/>
+    <mergeCell ref="AV10:AZ15"/>
+    <mergeCell ref="M16:Q21"/>
+    <mergeCell ref="R16:V21"/>
+    <mergeCell ref="W16:AA21"/>
+    <mergeCell ref="AB16:AF21"/>
+    <mergeCell ref="AG16:AK21"/>
     <mergeCell ref="AL16:AP21"/>
     <mergeCell ref="AQ22:AU27"/>
     <mergeCell ref="AV22:AZ27"/>
@@ -2073,70 +2117,30 @@
     <mergeCell ref="AG22:AK27"/>
     <mergeCell ref="AL22:AP27"/>
     <mergeCell ref="AQ10:AU15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="H4:L9"/>
-    <mergeCell ref="M4:Q9"/>
-    <mergeCell ref="R4:V9"/>
-    <mergeCell ref="W4:AA9"/>
-    <mergeCell ref="AB4:AF9"/>
-    <mergeCell ref="AG4:AK9"/>
-    <mergeCell ref="AL4:AP9"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -123,28 +123,44 @@
     <t>-Supporting
 -Learning algorithm, prepare SQL for suggest system</t>
   </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>-Interview Mr Hien - bu leader of fsu 11
+-Code addTimesheet function: 50%
+-Support Mai to code addAccuount function</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,12 +169,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -181,11 +203,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -196,26 +298,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -277,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,9 +456,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,6 +491,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,41 +667,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF22" sqref="AF22:AJ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="45.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:56" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:57" ht="0.75" customHeight="1">
-      <c r="A2" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:56" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -568,61 +718,64 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:57">
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
@@ -631,65 +784,65 @@
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-    </row>
-    <row r="4" spans="1:57">
-      <c r="A4" s="1" t="s">
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="3" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
@@ -703,29 +856,30 @@
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-    </row>
-    <row r="5" spans="1:57">
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -760,29 +914,30 @@
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -817,29 +972,30 @@
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-    </row>
-    <row r="7" spans="1:57">
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -874,29 +1030,30 @@
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-    </row>
-    <row r="8" spans="1:57">
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -931,29 +1088,30 @@
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-    </row>
-    <row r="9" spans="1:57">
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -988,49 +1146,49 @@
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-    </row>
-    <row r="10" spans="1:57">
-      <c r="A10" s="1" t="s">
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="3" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -1039,11 +1197,13 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
+      <c r="AF10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="14"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -1054,29 +1214,30 @@
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-    </row>
-    <row r="11" spans="1:57">
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1096,11 +1257,11 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="17"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -1111,29 +1272,30 @@
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-    </row>
-    <row r="12" spans="1:57">
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1153,11 +1315,11 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="17"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -1168,29 +1330,30 @@
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-    </row>
-    <row r="13" spans="1:57">
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1210,11 +1373,11 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="17"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
@@ -1225,29 +1388,30 @@
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-    </row>
-    <row r="14" spans="1:57">
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1267,11 +1431,11 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="17"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
@@ -1282,29 +1446,30 @@
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-    </row>
-    <row r="15" spans="1:57">
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1324,11 +1489,11 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="20"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
@@ -1339,37 +1504,37 @@
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-    </row>
-    <row r="16" spans="1:57">
-      <c r="A16" s="1" t="s">
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1403,29 +1568,30 @@
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-    </row>
-    <row r="17" spans="1:57">
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1460,29 +1626,30 @@
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-    </row>
-    <row r="18" spans="1:57">
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1517,29 +1684,30 @@
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-    </row>
-    <row r="19" spans="1:57">
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1574,29 +1742,30 @@
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-    </row>
-    <row r="20" spans="1:57">
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1631,29 +1800,30 @@
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-    </row>
-    <row r="21" spans="1:57">
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1688,67 +1858,67 @@
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-    </row>
-    <row r="22" spans="1:57">
-      <c r="A22" s="1" t="s">
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="3" t="s">
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3" t="s">
+      <c r="AF22" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -1762,29 +1932,30 @@
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-    </row>
-    <row r="23" spans="1:57">
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -1819,29 +1990,30 @@
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-    </row>
-    <row r="24" spans="1:57">
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1876,29 +2048,30 @@
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-    </row>
-    <row r="25" spans="1:57">
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1933,29 +2106,30 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-    </row>
-    <row r="26" spans="1:57">
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1990,29 +2164,30 @@
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-    </row>
-    <row r="27" spans="1:57">
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2047,100 +2222,104 @@
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="C16:G21"/>
-    <mergeCell ref="C22:G27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G9"/>
-    <mergeCell ref="H16:L21"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="H4:L9"/>
-    <mergeCell ref="M4:Q9"/>
-    <mergeCell ref="R4:V9"/>
-    <mergeCell ref="W4:AA9"/>
-    <mergeCell ref="AB4:AF9"/>
-    <mergeCell ref="AG4:AK9"/>
-    <mergeCell ref="AL4:AP9"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ4:AU9"/>
-    <mergeCell ref="AV4:AZ9"/>
-    <mergeCell ref="BA4:BE9"/>
-    <mergeCell ref="H10:L15"/>
-    <mergeCell ref="M10:Q15"/>
-    <mergeCell ref="R10:V15"/>
-    <mergeCell ref="W10:AA15"/>
-    <mergeCell ref="AB10:AF15"/>
-    <mergeCell ref="AG10:AK15"/>
-    <mergeCell ref="AL10:AP15"/>
-    <mergeCell ref="BA10:BE15"/>
-    <mergeCell ref="AV10:AZ15"/>
-    <mergeCell ref="M16:Q21"/>
-    <mergeCell ref="R16:V21"/>
-    <mergeCell ref="W16:AA21"/>
-    <mergeCell ref="AB16:AF21"/>
-    <mergeCell ref="AG16:AK21"/>
-    <mergeCell ref="AL16:AP21"/>
-    <mergeCell ref="AQ22:AU27"/>
-    <mergeCell ref="AV22:AZ27"/>
-    <mergeCell ref="BA22:BE27"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="AQ16:AU21"/>
-    <mergeCell ref="AV16:AZ21"/>
-    <mergeCell ref="BA16:BE21"/>
-    <mergeCell ref="H22:L27"/>
-    <mergeCell ref="M22:Q27"/>
-    <mergeCell ref="R22:V27"/>
-    <mergeCell ref="W22:AA27"/>
-    <mergeCell ref="AB22:AF27"/>
-    <mergeCell ref="AG22:AK27"/>
-    <mergeCell ref="AL22:AP27"/>
-    <mergeCell ref="AQ10:AU15"/>
+  <mergeCells count="60">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="AK16:AO21"/>
+    <mergeCell ref="AP22:AT27"/>
+    <mergeCell ref="AU22:AY27"/>
+    <mergeCell ref="AZ22:BD27"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="AP16:AT21"/>
+    <mergeCell ref="AU16:AY21"/>
+    <mergeCell ref="AZ16:BD21"/>
+    <mergeCell ref="G22:K27"/>
+    <mergeCell ref="L22:P27"/>
+    <mergeCell ref="Q22:U27"/>
+    <mergeCell ref="V22:Z27"/>
+    <mergeCell ref="AA22:AE27"/>
+    <mergeCell ref="AF22:AJ27"/>
+    <mergeCell ref="AK22:AO27"/>
+    <mergeCell ref="AP10:AT15"/>
+    <mergeCell ref="L16:P21"/>
+    <mergeCell ref="Q16:U21"/>
+    <mergeCell ref="V16:Z21"/>
+    <mergeCell ref="AA16:AE21"/>
+    <mergeCell ref="AF16:AJ21"/>
+    <mergeCell ref="AP4:AT9"/>
+    <mergeCell ref="AU4:AY9"/>
+    <mergeCell ref="AZ4:BD9"/>
+    <mergeCell ref="G10:K15"/>
+    <mergeCell ref="L10:P15"/>
+    <mergeCell ref="Q10:U15"/>
+    <mergeCell ref="V10:Z15"/>
+    <mergeCell ref="AA10:AE15"/>
+    <mergeCell ref="AF10:AJ15"/>
+    <mergeCell ref="AK10:AO15"/>
+    <mergeCell ref="AZ10:BD15"/>
+    <mergeCell ref="AU10:AY15"/>
+    <mergeCell ref="AP3:AT3"/>
+    <mergeCell ref="AU3:AY3"/>
+    <mergeCell ref="AZ3:BD3"/>
+    <mergeCell ref="G4:K9"/>
+    <mergeCell ref="L4:P9"/>
+    <mergeCell ref="Q4:U9"/>
+    <mergeCell ref="V4:Z9"/>
+    <mergeCell ref="AA4:AE9"/>
+    <mergeCell ref="AF4:AJ9"/>
+    <mergeCell ref="AK4:AO9"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="B10:F15"/>
+    <mergeCell ref="B16:F21"/>
+    <mergeCell ref="B22:F27"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F9"/>
+    <mergeCell ref="G16:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>TASK SHEET</t>
   </si>
@@ -161,11 +161,11 @@
 -Change database some locations</t>
   </si>
   <si>
-    <t>-HTML recruimtentDetail.jsp
-- Code ViewRecruimtentDetail
-- HTML createRecruitment.jsp
-- Code Create Recruitment
-- Review ERD, Class Diagram, Usecase</t>
+    <t>-Code addTimesheet : done
+-Code update/delete/show: timesheet: done</t>
+  </si>
+  <si>
+    <t>-Code reviewTimesheet: 80%</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AU10" sqref="AU10:AY15"/>
     </sheetView>
@@ -902,9 +902,7 @@
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
-      <c r="AU4" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1321,12 +1319,16 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
-      <c r="AP10" s="10"/>
+      <c r="AP10" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="9"/>
+      <c r="AU10" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,14 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>TASK SHEET</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Mai</t>
   </si>
@@ -195,23 +193,44 @@
 -Support Recruitment flow, Criterion flow
 -Review erd and class diagram, usecase, database</t>
   </si>
+  <si>
+    <t>-Write use case detail: write timesheet, update timesheet, delete timesheet, view timesheet</t>
+  </si>
+  <si>
+    <t>Thứ 4 - 03/06/2015</t>
+  </si>
+  <si>
+    <t>Thứ 3 - 02/06/2015</t>
+  </si>
+  <si>
+    <t>Thứ 5 - 04/06/2015</t>
+  </si>
+  <si>
+    <t>Thứ 6 - 05/06/2015</t>
+  </si>
+  <si>
+    <t>Thứ 7 - 06/06/2015</t>
+  </si>
+  <si>
+    <t>TASK           SHEET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -219,7 +238,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -413,9 +440,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -424,6 +448,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,9 +544,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,6 +579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,212 +755,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU22" sqref="AU22:AY27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF3" sqref="BF3:BJ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="45.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:77" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9"/>
     </row>
-    <row r="2" spans="1:66" ht="0.75" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:66" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-    </row>
-    <row r="4" spans="1:66">
-      <c r="A4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
-      <c r="AP4" s="10"/>
+      <c r="AP4" s="9"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
-      <c r="AU4" s="9"/>
+      <c r="AU4" s="10"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -951,20 +1063,31 @@
       <c r="BL4" s="9"/>
       <c r="BM4" s="9"/>
       <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -994,12 +1117,12 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
-      <c r="AP5" s="10"/>
+      <c r="AP5" s="9"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
-      <c r="AU5" s="9"/>
+      <c r="AU5" s="10"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
@@ -1019,20 +1142,31 @@
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
       <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1062,12 +1196,12 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
-      <c r="AP6" s="10"/>
+      <c r="AP6" s="9"/>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
-      <c r="AU6" s="9"/>
+      <c r="AU6" s="10"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
@@ -1087,20 +1221,31 @@
       <c r="BL6" s="9"/>
       <c r="BM6" s="9"/>
       <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1130,12 +1275,12 @@
       <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
-      <c r="AP7" s="10"/>
+      <c r="AP7" s="9"/>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
-      <c r="AU7" s="9"/>
+      <c r="AU7" s="10"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
@@ -1155,20 +1300,31 @@
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1198,12 +1354,12 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
-      <c r="AP8" s="10"/>
+      <c r="AP8" s="9"/>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
-      <c r="AU8" s="9"/>
+      <c r="AU8" s="10"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
@@ -1223,61 +1379,92 @@
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="W9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
+      <c r="AB9" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
+      <c r="AG9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="AR9" s="10"/>
       <c r="AS9" s="10"/>
       <c r="AT9" s="10"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
+      <c r="BA9" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
       <c r="BD9" s="9"/>
@@ -1291,73 +1478,66 @@
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
     </row>
-    <row r="10" spans="1:66">
-      <c r="A10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
-      <c r="AF10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="16"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
-      <c r="AP10" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="AP10" s="9"/>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="AU10" s="10"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
@@ -1377,20 +1557,31 @@
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
       <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9"/>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1410,22 +1601,22 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="15"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="14"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="9"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="16"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
-      <c r="AP11" s="10"/>
+      <c r="AP11" s="9"/>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
       <c r="AS11" s="10"/>
       <c r="AT11" s="10"/>
-      <c r="AU11" s="9"/>
+      <c r="AU11" s="10"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -1445,20 +1636,31 @@
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
       <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="9"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="9"/>
+      <c r="BT11" s="9"/>
+      <c r="BU11" s="9"/>
+      <c r="BV11" s="9"/>
+      <c r="BW11" s="9"/>
+      <c r="BX11" s="9"/>
+      <c r="BY11" s="9"/>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1478,22 +1680,22 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="15"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="14"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="9"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="16"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
-      <c r="AP12" s="10"/>
+      <c r="AP12" s="9"/>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
-      <c r="AU12" s="9"/>
+      <c r="AU12" s="10"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
@@ -1513,20 +1715,31 @@
       <c r="BL12" s="9"/>
       <c r="BM12" s="9"/>
       <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1546,22 +1759,22 @@
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="15"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="14"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="9"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="16"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
-      <c r="AP13" s="10"/>
+      <c r="AP13" s="9"/>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
       <c r="AS13" s="10"/>
       <c r="AT13" s="10"/>
-      <c r="AU13" s="9"/>
+      <c r="AU13" s="10"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
@@ -1581,20 +1794,31 @@
       <c r="BL13" s="9"/>
       <c r="BM13" s="9"/>
       <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1614,22 +1838,22 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="19"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
-      <c r="AP14" s="10"/>
+      <c r="AP14" s="9"/>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
-      <c r="AU14" s="9"/>
+      <c r="AU14" s="10"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1649,21 +1873,38 @@
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
       <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1673,32 +1914,44 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="W15" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
+      <c r="AB15" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="19"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
+      <c r="AL15" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="AR15" s="10"/>
       <c r="AS15" s="10"/>
       <c r="AT15" s="10"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
@@ -1717,26 +1970,31 @@
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
       <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="9"/>
+      <c r="BY15" s="9"/>
     </row>
-    <row r="16" spans="1:66">
-      <c r="A16" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>12</v>
-      </c>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -1746,44 +2004,32 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
-      <c r="AF16" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
-      <c r="AK16" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
-      <c r="AP16" s="22" t="s">
-        <v>44</v>
-      </c>
+      <c r="AP16" s="9"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
-      <c r="AU16" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="AU16" s="10"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
@@ -1803,20 +2049,31 @@
       <c r="BL16" s="9"/>
       <c r="BM16" s="9"/>
       <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -1846,12 +2103,12 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
-      <c r="AP17" s="10"/>
+      <c r="AP17" s="9"/>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
-      <c r="AU17" s="9"/>
+      <c r="AU17" s="10"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
@@ -1871,20 +2128,31 @@
       <c r="BL17" s="9"/>
       <c r="BM17" s="9"/>
       <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1914,12 +2182,12 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
-      <c r="AP18" s="10"/>
+      <c r="AP18" s="9"/>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
-      <c r="AU18" s="9"/>
+      <c r="AU18" s="10"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
@@ -1939,20 +2207,31 @@
       <c r="BL18" s="9"/>
       <c r="BM18" s="9"/>
       <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -1982,12 +2261,12 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
-      <c r="AP19" s="10"/>
+      <c r="AP19" s="9"/>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
-      <c r="AU19" s="9"/>
+      <c r="AU19" s="10"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
@@ -2007,20 +2286,31 @@
       <c r="BL19" s="9"/>
       <c r="BM19" s="9"/>
       <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
     </row>
-    <row r="20" spans="1:66">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2050,12 +2340,12 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
-      <c r="AP20" s="10"/>
+      <c r="AP20" s="9"/>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
-      <c r="AU20" s="9"/>
+      <c r="AU20" s="10"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
@@ -2075,56 +2365,89 @@
       <c r="BL20" s="9"/>
       <c r="BM20" s="9"/>
       <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
     </row>
-    <row r="21" spans="1:66">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="R21" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="W21" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
+      <c r="AB21" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
+      <c r="AG21" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
+      <c r="AL21" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="AR21" s="10"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="AW21" s="9"/>
       <c r="AX21" s="9"/>
       <c r="AY21" s="9"/>
@@ -2143,77 +2466,66 @@
       <c r="BL21" s="9"/>
       <c r="BM21" s="9"/>
       <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
     </row>
-    <row r="22" spans="1:66">
-      <c r="A22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="G22" s="9"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="L22" s="10"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="V22" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-      <c r="AA22" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
-      <c r="AF22" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
-      <c r="AP22" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="AP22" s="9"/>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
-      <c r="AU22" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="AU22" s="10"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
@@ -2233,20 +2545,31 @@
       <c r="BL22" s="9"/>
       <c r="BM22" s="9"/>
       <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
     </row>
-    <row r="23" spans="1:66">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2276,12 +2599,12 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
-      <c r="AP23" s="10"/>
+      <c r="AP23" s="9"/>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
-      <c r="AU23" s="9"/>
+      <c r="AU23" s="10"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
@@ -2301,20 +2624,31 @@
       <c r="BL23" s="9"/>
       <c r="BM23" s="9"/>
       <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
     </row>
-    <row r="24" spans="1:66">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2344,12 +2678,12 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
-      <c r="AP24" s="10"/>
+      <c r="AP24" s="9"/>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
-      <c r="AU24" s="9"/>
+      <c r="AU24" s="10"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
@@ -2369,20 +2703,31 @@
       <c r="BL24" s="9"/>
       <c r="BM24" s="9"/>
       <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
     </row>
-    <row r="25" spans="1:66">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2412,12 +2757,12 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-      <c r="AP25" s="10"/>
+      <c r="AP25" s="9"/>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
-      <c r="AU25" s="9"/>
+      <c r="AU25" s="10"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -2437,20 +2782,31 @@
       <c r="BL25" s="9"/>
       <c r="BM25" s="9"/>
       <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="9"/>
+      <c r="BQ25" s="9"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="9"/>
+      <c r="BU25" s="9"/>
+      <c r="BV25" s="9"/>
+      <c r="BW25" s="9"/>
+      <c r="BX25" s="9"/>
+      <c r="BY25" s="9"/>
     </row>
-    <row r="26" spans="1:66">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2480,12 +2836,12 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
-      <c r="AP26" s="10"/>
+      <c r="AP26" s="9"/>
       <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
-      <c r="AU26" s="9"/>
+      <c r="AU26" s="10"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
@@ -2505,147 +2861,100 @@
       <c r="BL26" s="9"/>
       <c r="BM26" s="9"/>
       <c r="BN26" s="9"/>
-    </row>
-    <row r="27" spans="1:66">
-      <c r="A27" s="24"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="9"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
-      <c r="BA27" s="9"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
-      <c r="BG27" s="9"/>
-      <c r="BH27" s="9"/>
-      <c r="BI27" s="9"/>
-      <c r="BJ27" s="9"/>
-      <c r="BK27" s="9"/>
-      <c r="BL27" s="9"/>
-      <c r="BM27" s="9"/>
-      <c r="BN27" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+      <c r="BW26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="BE16:BI21"/>
-    <mergeCell ref="BJ16:BN21"/>
-    <mergeCell ref="BE22:BI27"/>
-    <mergeCell ref="BJ22:BN27"/>
-    <mergeCell ref="BE3:BI3"/>
-    <mergeCell ref="BJ3:BN3"/>
-    <mergeCell ref="BE4:BI9"/>
-    <mergeCell ref="BJ4:BN9"/>
-    <mergeCell ref="BE10:BI15"/>
-    <mergeCell ref="BJ10:BN15"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="AK16:AO21"/>
-    <mergeCell ref="Q16:U21"/>
-    <mergeCell ref="V16:Z21"/>
-    <mergeCell ref="AA16:AE21"/>
-    <mergeCell ref="AF16:AJ21"/>
-    <mergeCell ref="B10:F15"/>
-    <mergeCell ref="B16:F21"/>
-    <mergeCell ref="B22:F27"/>
-    <mergeCell ref="AP22:AT27"/>
-    <mergeCell ref="AU22:AY27"/>
-    <mergeCell ref="AZ22:BD27"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="AP16:AT21"/>
-    <mergeCell ref="AU16:AY21"/>
-    <mergeCell ref="AZ16:BD21"/>
-    <mergeCell ref="G22:K27"/>
-    <mergeCell ref="L22:P27"/>
-    <mergeCell ref="Q22:U27"/>
-    <mergeCell ref="V22:Z27"/>
-    <mergeCell ref="AA22:AE27"/>
-    <mergeCell ref="AF22:AJ27"/>
-    <mergeCell ref="AK22:AO27"/>
-    <mergeCell ref="AP10:AT15"/>
-    <mergeCell ref="L16:P21"/>
-    <mergeCell ref="AU4:AY9"/>
-    <mergeCell ref="AZ4:BD9"/>
-    <mergeCell ref="G10:K15"/>
-    <mergeCell ref="L10:P15"/>
-    <mergeCell ref="Q10:U15"/>
-    <mergeCell ref="V10:Z15"/>
-    <mergeCell ref="AA10:AE15"/>
-    <mergeCell ref="AF10:AJ15"/>
-    <mergeCell ref="AK10:AO15"/>
-    <mergeCell ref="AZ10:BD15"/>
-    <mergeCell ref="AU10:AY15"/>
-    <mergeCell ref="AU3:AY3"/>
-    <mergeCell ref="AZ3:BD3"/>
-    <mergeCell ref="G4:K9"/>
-    <mergeCell ref="L4:P9"/>
-    <mergeCell ref="Q4:U9"/>
-    <mergeCell ref="V4:Z9"/>
-    <mergeCell ref="AA4:AE9"/>
-    <mergeCell ref="AF4:AJ9"/>
-    <mergeCell ref="AK4:AO9"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="AP4:AT9"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F9"/>
-    <mergeCell ref="G16:K21"/>
-    <mergeCell ref="AP3:AT3"/>
+  <mergeCells count="80">
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BU3:BY8"/>
+    <mergeCell ref="BU9:BY14"/>
+    <mergeCell ref="BU15:BY20"/>
+    <mergeCell ref="BU21:BY26"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="BP3:BT8"/>
+    <mergeCell ref="BP9:BT14"/>
+    <mergeCell ref="BP15:BT20"/>
+    <mergeCell ref="BP21:BT26"/>
+    <mergeCell ref="BF15:BJ20"/>
+    <mergeCell ref="BK15:BO20"/>
+    <mergeCell ref="BF21:BJ26"/>
+    <mergeCell ref="BK21:BO26"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BF3:BJ8"/>
+    <mergeCell ref="BK3:BO8"/>
+    <mergeCell ref="BF9:BJ14"/>
+    <mergeCell ref="BK9:BO14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="AL15:AP20"/>
+    <mergeCell ref="R15:V20"/>
+    <mergeCell ref="W15:AA20"/>
+    <mergeCell ref="AB15:AF20"/>
+    <mergeCell ref="AG15:AK20"/>
+    <mergeCell ref="C9:G14"/>
+    <mergeCell ref="C15:G20"/>
+    <mergeCell ref="C21:G26"/>
+    <mergeCell ref="AQ21:AU26"/>
+    <mergeCell ref="AV21:AZ26"/>
+    <mergeCell ref="BA21:BE26"/>
+    <mergeCell ref="AQ15:AU20"/>
+    <mergeCell ref="AV15:AZ20"/>
+    <mergeCell ref="BA15:BE20"/>
+    <mergeCell ref="H21:L26"/>
+    <mergeCell ref="M21:Q26"/>
+    <mergeCell ref="R21:V26"/>
+    <mergeCell ref="W21:AA26"/>
+    <mergeCell ref="AB21:AF26"/>
+    <mergeCell ref="AG21:AK26"/>
+    <mergeCell ref="AL21:AP26"/>
+    <mergeCell ref="AQ9:AU14"/>
+    <mergeCell ref="M15:Q20"/>
+    <mergeCell ref="AV3:AZ8"/>
+    <mergeCell ref="BA3:BE8"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="M9:Q14"/>
+    <mergeCell ref="R9:V14"/>
+    <mergeCell ref="W9:AA14"/>
+    <mergeCell ref="AB9:AF14"/>
+    <mergeCell ref="AG9:AK14"/>
+    <mergeCell ref="AL9:AP14"/>
+    <mergeCell ref="BA9:BE14"/>
+    <mergeCell ref="AV9:AZ14"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="H3:L8"/>
+    <mergeCell ref="M3:Q8"/>
+    <mergeCell ref="R3:V8"/>
+    <mergeCell ref="W3:AA8"/>
+    <mergeCell ref="AB3:AF8"/>
+    <mergeCell ref="AG3:AK8"/>
+    <mergeCell ref="AL3:AP8"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ3:AU8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="H15:L20"/>
+    <mergeCell ref="AQ2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2653,24 +2962,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Mai</t>
   </si>
@@ -213,6 +212,23 @@
   </si>
   <si>
     <t>TASK           SHEET</t>
+  </si>
+  <si>
+    <t>- HTML recruitmentdetail.jsp
+- Code viewRecruitmentDetail
+- HTML searchRecruitment.jsp
+- Code searchRecruitment</t>
+  </si>
+  <si>
+    <t>- Write Report 2 (80%)
+- Write usecase detail: 
++ SearchRecruitment
++ ViewRecruitmentDetails
++ AddRecruitmentComment</t>
+  </si>
+  <si>
+    <t>- Complete Report 2
+- Write Report 3 (20%)</t>
   </si>
 </sst>
 </file>
@@ -398,8 +414,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -407,7 +423,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -437,20 +465,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +775,7 @@
   <dimension ref="A1:BY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="AS1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BF3" sqref="BF3:BJ8"/>
     </sheetView>
   </sheetViews>
@@ -789,7 +805,7 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -802,13 +818,13 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
@@ -851,13 +867,13 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
       <c r="AV2" s="8" t="s">
         <v>34</v>
       </c>
@@ -902,8 +918,8 @@
       <c r="BY2" s="8"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -913,11 +929,11 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
@@ -960,22 +976,28 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="9"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
       <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
+      <c r="BA3" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
       <c r="BD3" s="9"/>
       <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
+      <c r="BF3" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="BG3" s="9"/>
       <c r="BH3" s="9"/>
       <c r="BI3" s="9"/>
@@ -997,18 +1019,18 @@
       <c r="BY3" s="9"/>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1039,11 +1061,11 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1076,18 +1098,18 @@
       <c r="BY4" s="9"/>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1118,11 +1140,11 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
@@ -1155,18 +1177,18 @@
       <c r="BY5" s="9"/>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1197,11 +1219,11 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
@@ -1234,18 +1256,18 @@
       <c r="BY6" s="9"/>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1276,11 +1298,11 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
@@ -1313,18 +1335,18 @@
       <c r="BY7" s="9"/>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1355,11 +1377,11 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
@@ -1392,8 +1414,8 @@
       <c r="BY8" s="9"/>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9"/>
@@ -1401,11 +1423,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1434,13 +1456,13 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="13"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="17"/>
       <c r="AL9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1448,13 +1470,13 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="10" t="s">
+      <c r="AQ9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
       <c r="AV9" s="9" t="s">
         <v>40</v>
       </c>
@@ -1491,18 +1513,18 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1523,21 +1545,21 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="16"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="20"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
@@ -1570,18 +1592,18 @@
       <c r="BY10" s="9"/>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1602,21 +1624,21 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="16"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="20"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -1649,18 +1671,18 @@
       <c r="BY11" s="9"/>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1681,21 +1703,21 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="16"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="20"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
@@ -1728,18 +1750,18 @@
       <c r="BY12" s="9"/>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1760,21 +1782,21 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="16"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
@@ -1807,18 +1829,18 @@
       <c r="BY13" s="9"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1839,21 +1861,21 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="19"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="23"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1886,23 +1908,23 @@
       <c r="BY14" s="9"/>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="22" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="9"/>
@@ -1914,42 +1936,42 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="22" t="s">
+      <c r="W15" s="11" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="22" t="s">
+      <c r="AB15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="22" t="s">
+      <c r="AG15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="22" t="s">
+      <c r="AL15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="21" t="s">
+      <c r="AQ15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="22" t="s">
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="AW15" s="9"/>
@@ -1983,18 +2005,18 @@
       <c r="BY15" s="9"/>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2025,11 +2047,11 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
@@ -2062,18 +2084,18 @@
       <c r="BY16" s="9"/>
     </row>
     <row r="17" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2104,11 +2126,11 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
@@ -2141,18 +2163,18 @@
       <c r="BY17" s="9"/>
     </row>
     <row r="18" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2183,11 +2205,11 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
@@ -2220,18 +2242,18 @@
       <c r="BY18" s="9"/>
     </row>
     <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2262,11 +2284,11 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
@@ -2299,18 +2321,18 @@
       <c r="BY19" s="9"/>
     </row>
     <row r="20" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2341,11 +2363,11 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
@@ -2378,8 +2400,8 @@
       <c r="BY20" s="9"/>
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2389,13 +2411,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2438,13 +2460,13 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-      <c r="AQ21" s="20" t="s">
+      <c r="AQ21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
       <c r="AV21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2479,18 +2501,18 @@
       <c r="BY21" s="9"/>
     </row>
     <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2521,11 +2543,11 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
@@ -2558,18 +2580,18 @@
       <c r="BY22" s="9"/>
     </row>
     <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2600,11 +2622,11 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
@@ -2637,18 +2659,18 @@
       <c r="BY23" s="9"/>
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2679,11 +2701,11 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
@@ -2716,18 +2738,18 @@
       <c r="BY24" s="9"/>
     </row>
     <row r="25" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2758,11 +2780,11 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -2795,18 +2817,18 @@
       <c r="BY25" s="9"/>
     </row>
     <row r="26" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2837,11 +2859,11 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
@@ -2875,6 +2897,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="H15:L20"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="H3:L8"/>
+    <mergeCell ref="M3:Q8"/>
+    <mergeCell ref="R3:V8"/>
+    <mergeCell ref="W3:AA8"/>
+    <mergeCell ref="AB3:AF8"/>
+    <mergeCell ref="AG3:AK8"/>
+    <mergeCell ref="AL3:AP8"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ3:AU8"/>
+    <mergeCell ref="AV3:AZ8"/>
+    <mergeCell ref="BA3:BE8"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="M9:Q14"/>
+    <mergeCell ref="R9:V14"/>
+    <mergeCell ref="W9:AA14"/>
+    <mergeCell ref="AB9:AF14"/>
+    <mergeCell ref="AG9:AK14"/>
+    <mergeCell ref="AL9:AP14"/>
+    <mergeCell ref="BA9:BE14"/>
+    <mergeCell ref="AV9:AZ14"/>
+    <mergeCell ref="AB21:AF26"/>
+    <mergeCell ref="AG21:AK26"/>
+    <mergeCell ref="AL21:AP26"/>
+    <mergeCell ref="AQ9:AU14"/>
+    <mergeCell ref="M15:Q20"/>
+    <mergeCell ref="AQ21:AU26"/>
+    <mergeCell ref="AV21:AZ26"/>
+    <mergeCell ref="BA21:BE26"/>
+    <mergeCell ref="AQ15:AU20"/>
+    <mergeCell ref="AV15:AZ20"/>
+    <mergeCell ref="BA15:BE20"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="AL15:AP20"/>
+    <mergeCell ref="R15:V20"/>
+    <mergeCell ref="W15:AA20"/>
+    <mergeCell ref="AB15:AF20"/>
+    <mergeCell ref="AG15:AK20"/>
+    <mergeCell ref="C9:G14"/>
+    <mergeCell ref="C15:G20"/>
+    <mergeCell ref="C21:G26"/>
+    <mergeCell ref="H21:L26"/>
+    <mergeCell ref="M21:Q26"/>
+    <mergeCell ref="R21:V26"/>
+    <mergeCell ref="W21:AA26"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BF3:BJ8"/>
+    <mergeCell ref="BK3:BO8"/>
+    <mergeCell ref="BF9:BJ14"/>
+    <mergeCell ref="BK9:BO14"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="BU2:BY2"/>
     <mergeCell ref="BU3:BY8"/>
@@ -2891,70 +2977,6 @@
     <mergeCell ref="BF21:BJ26"/>
     <mergeCell ref="BK21:BO26"/>
     <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BF3:BJ8"/>
-    <mergeCell ref="BK3:BO8"/>
-    <mergeCell ref="BF9:BJ14"/>
-    <mergeCell ref="BK9:BO14"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="AL15:AP20"/>
-    <mergeCell ref="R15:V20"/>
-    <mergeCell ref="W15:AA20"/>
-    <mergeCell ref="AB15:AF20"/>
-    <mergeCell ref="AG15:AK20"/>
-    <mergeCell ref="C9:G14"/>
-    <mergeCell ref="C15:G20"/>
-    <mergeCell ref="C21:G26"/>
-    <mergeCell ref="AQ21:AU26"/>
-    <mergeCell ref="AV21:AZ26"/>
-    <mergeCell ref="BA21:BE26"/>
-    <mergeCell ref="AQ15:AU20"/>
-    <mergeCell ref="AV15:AZ20"/>
-    <mergeCell ref="BA15:BE20"/>
-    <mergeCell ref="H21:L26"/>
-    <mergeCell ref="M21:Q26"/>
-    <mergeCell ref="R21:V26"/>
-    <mergeCell ref="W21:AA26"/>
-    <mergeCell ref="AB21:AF26"/>
-    <mergeCell ref="AG21:AK26"/>
-    <mergeCell ref="AL21:AP26"/>
-    <mergeCell ref="AQ9:AU14"/>
-    <mergeCell ref="M15:Q20"/>
-    <mergeCell ref="AV3:AZ8"/>
-    <mergeCell ref="BA3:BE8"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="M9:Q14"/>
-    <mergeCell ref="R9:V14"/>
-    <mergeCell ref="W9:AA14"/>
-    <mergeCell ref="AB9:AF14"/>
-    <mergeCell ref="AG9:AK14"/>
-    <mergeCell ref="AL9:AP14"/>
-    <mergeCell ref="BA9:BE14"/>
-    <mergeCell ref="AV9:AZ14"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="H3:L8"/>
-    <mergeCell ref="M3:Q8"/>
-    <mergeCell ref="R3:V8"/>
-    <mergeCell ref="W3:AA8"/>
-    <mergeCell ref="AB3:AF8"/>
-    <mergeCell ref="AG3:AK8"/>
-    <mergeCell ref="AL3:AP8"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ3:AU8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G8"/>
-    <mergeCell ref="H15:L20"/>
-    <mergeCell ref="AQ2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -228,7 +228,7 @@
   </si>
   <si>
     <t>- Complete Report 2
-- Write Report 3 (20%)</t>
+- Write Report 3 (50%)</t>
   </si>
 </sst>
 </file>
@@ -414,8 +414,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -423,19 +423,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -465,8 +453,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,7 +805,7 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -818,13 +818,13 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
@@ -867,13 +867,13 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
       <c r="AV2" s="8" t="s">
         <v>34</v>
       </c>
@@ -918,8 +918,8 @@
       <c r="BY2" s="8"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -929,11 +929,11 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
@@ -976,11 +976,11 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
       <c r="AV3" s="9" t="s">
         <v>55</v>
       </c>
@@ -1019,18 +1019,18 @@
       <c r="BY3" s="9"/>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1061,11 +1061,11 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1098,18 +1098,18 @@
       <c r="BY4" s="9"/>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1140,11 +1140,11 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
@@ -1177,18 +1177,18 @@
       <c r="BY5" s="9"/>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1219,11 +1219,11 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
@@ -1256,18 +1256,18 @@
       <c r="BY6" s="9"/>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1298,11 +1298,11 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
@@ -1335,18 +1335,18 @@
       <c r="BY7" s="9"/>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1377,11 +1377,11 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
@@ -1414,8 +1414,8 @@
       <c r="BY8" s="9"/>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9"/>
@@ -1423,11 +1423,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1456,13 +1456,13 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="15" t="s">
+      <c r="AG9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="17"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="13"/>
       <c r="AL9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1470,13 +1470,13 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="13" t="s">
+      <c r="AQ9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
       <c r="AV9" s="9" t="s">
         <v>40</v>
       </c>
@@ -1513,18 +1513,18 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1545,21 +1545,21 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="20"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="16"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
@@ -1592,18 +1592,18 @@
       <c r="BY10" s="9"/>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1624,21 +1624,21 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="20"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="16"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -1671,18 +1671,18 @@
       <c r="BY11" s="9"/>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1703,21 +1703,21 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="20"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="16"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
@@ -1750,18 +1750,18 @@
       <c r="BY12" s="9"/>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1782,21 +1782,21 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="20"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="16"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
@@ -1829,18 +1829,18 @@
       <c r="BY13" s="9"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1861,21 +1861,21 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="19"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1908,23 +1908,23 @@
       <c r="BY14" s="9"/>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="11" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="20" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="9"/>
@@ -1936,42 +1936,42 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="11" t="s">
+      <c r="W15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="11" t="s">
+      <c r="AB15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="11" t="s">
+      <c r="AG15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="11" t="s">
+      <c r="AL15" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="14" t="s">
+      <c r="AQ15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="11" t="s">
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AW15" s="9"/>
@@ -2005,18 +2005,18 @@
       <c r="BY15" s="9"/>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2047,11 +2047,11 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
@@ -2084,18 +2084,18 @@
       <c r="BY16" s="9"/>
     </row>
     <row r="17" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2126,11 +2126,11 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
@@ -2163,18 +2163,18 @@
       <c r="BY17" s="9"/>
     </row>
     <row r="18" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2205,11 +2205,11 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
@@ -2242,18 +2242,18 @@
       <c r="BY18" s="9"/>
     </row>
     <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2284,11 +2284,11 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
@@ -2321,18 +2321,18 @@
       <c r="BY19" s="9"/>
     </row>
     <row r="20" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2363,11 +2363,11 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
@@ -2400,8 +2400,8 @@
       <c r="BY20" s="9"/>
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2411,13 +2411,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2460,13 +2460,13 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-      <c r="AQ21" s="12" t="s">
+      <c r="AQ21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
       <c r="AV21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2501,18 +2501,18 @@
       <c r="BY21" s="9"/>
     </row>
     <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2543,11 +2543,11 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
@@ -2580,18 +2580,18 @@
       <c r="BY22" s="9"/>
     </row>
     <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2622,11 +2622,11 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
@@ -2659,18 +2659,18 @@
       <c r="BY23" s="9"/>
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2701,11 +2701,11 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
@@ -2738,18 +2738,18 @@
       <c r="BY24" s="9"/>
     </row>
     <row r="25" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2780,11 +2780,11 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -2817,18 +2817,18 @@
       <c r="BY25" s="9"/>
     </row>
     <row r="26" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2859,11 +2859,11 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
@@ -2897,11 +2897,65 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G8"/>
-    <mergeCell ref="H15:L20"/>
-    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BU3:BY8"/>
+    <mergeCell ref="BU9:BY14"/>
+    <mergeCell ref="BU15:BY20"/>
+    <mergeCell ref="BU21:BY26"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="BP3:BT8"/>
+    <mergeCell ref="BP9:BT14"/>
+    <mergeCell ref="BP15:BT20"/>
+    <mergeCell ref="BP21:BT26"/>
+    <mergeCell ref="BF15:BJ20"/>
+    <mergeCell ref="BK15:BO20"/>
+    <mergeCell ref="BF21:BJ26"/>
+    <mergeCell ref="BK21:BO26"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BF3:BJ8"/>
+    <mergeCell ref="BK3:BO8"/>
+    <mergeCell ref="BF9:BJ14"/>
+    <mergeCell ref="BK9:BO14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="AL15:AP20"/>
+    <mergeCell ref="R15:V20"/>
+    <mergeCell ref="W15:AA20"/>
+    <mergeCell ref="AB15:AF20"/>
+    <mergeCell ref="AG15:AK20"/>
+    <mergeCell ref="C9:G14"/>
+    <mergeCell ref="C15:G20"/>
+    <mergeCell ref="C21:G26"/>
+    <mergeCell ref="H21:L26"/>
+    <mergeCell ref="M21:Q26"/>
+    <mergeCell ref="R21:V26"/>
+    <mergeCell ref="W21:AA26"/>
+    <mergeCell ref="AV21:AZ26"/>
+    <mergeCell ref="BA21:BE26"/>
+    <mergeCell ref="AQ15:AU20"/>
+    <mergeCell ref="AV15:AZ20"/>
+    <mergeCell ref="BA15:BE20"/>
+    <mergeCell ref="AB21:AF26"/>
+    <mergeCell ref="AG21:AK26"/>
+    <mergeCell ref="AL21:AP26"/>
+    <mergeCell ref="AQ9:AU14"/>
+    <mergeCell ref="M15:Q20"/>
+    <mergeCell ref="AQ21:AU26"/>
+    <mergeCell ref="AV3:AZ8"/>
+    <mergeCell ref="BA3:BE8"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="M9:Q14"/>
+    <mergeCell ref="R9:V14"/>
+    <mergeCell ref="W9:AA14"/>
+    <mergeCell ref="AB9:AF14"/>
+    <mergeCell ref="AG9:AK14"/>
+    <mergeCell ref="AL9:AP14"/>
+    <mergeCell ref="BA9:BE14"/>
+    <mergeCell ref="AV9:AZ14"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BE2"/>
     <mergeCell ref="H3:L8"/>
@@ -2918,65 +2972,11 @@
     <mergeCell ref="AG2:AK2"/>
     <mergeCell ref="AL2:AP2"/>
     <mergeCell ref="AQ3:AU8"/>
-    <mergeCell ref="AV3:AZ8"/>
-    <mergeCell ref="BA3:BE8"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="M9:Q14"/>
-    <mergeCell ref="R9:V14"/>
-    <mergeCell ref="W9:AA14"/>
-    <mergeCell ref="AB9:AF14"/>
-    <mergeCell ref="AG9:AK14"/>
-    <mergeCell ref="AL9:AP14"/>
-    <mergeCell ref="BA9:BE14"/>
-    <mergeCell ref="AV9:AZ14"/>
-    <mergeCell ref="AB21:AF26"/>
-    <mergeCell ref="AG21:AK26"/>
-    <mergeCell ref="AL21:AP26"/>
-    <mergeCell ref="AQ9:AU14"/>
-    <mergeCell ref="M15:Q20"/>
-    <mergeCell ref="AQ21:AU26"/>
-    <mergeCell ref="AV21:AZ26"/>
-    <mergeCell ref="BA21:BE26"/>
-    <mergeCell ref="AQ15:AU20"/>
-    <mergeCell ref="AV15:AZ20"/>
-    <mergeCell ref="BA15:BE20"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="AL15:AP20"/>
-    <mergeCell ref="R15:V20"/>
-    <mergeCell ref="W15:AA20"/>
-    <mergeCell ref="AB15:AF20"/>
-    <mergeCell ref="AG15:AK20"/>
-    <mergeCell ref="C9:G14"/>
-    <mergeCell ref="C15:G20"/>
-    <mergeCell ref="C21:G26"/>
-    <mergeCell ref="H21:L26"/>
-    <mergeCell ref="M21:Q26"/>
-    <mergeCell ref="R21:V26"/>
-    <mergeCell ref="W21:AA26"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BF3:BJ8"/>
-    <mergeCell ref="BK3:BO8"/>
-    <mergeCell ref="BF9:BJ14"/>
-    <mergeCell ref="BK9:BO14"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BU3:BY8"/>
-    <mergeCell ref="BU9:BY14"/>
-    <mergeCell ref="BU15:BY20"/>
-    <mergeCell ref="BU21:BY26"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="BP3:BT8"/>
-    <mergeCell ref="BP9:BT14"/>
-    <mergeCell ref="BP15:BT20"/>
-    <mergeCell ref="BP21:BT26"/>
-    <mergeCell ref="BF15:BJ20"/>
-    <mergeCell ref="BK15:BO20"/>
-    <mergeCell ref="BF21:BJ26"/>
-    <mergeCell ref="BK21:BO26"/>
-    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="H15:L20"/>
+    <mergeCell ref="AQ2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Mai</t>
   </si>
@@ -230,23 +230,29 @@
     <t>- Complete Report 2
 - Write Report 3 (50%)</t>
   </si>
+  <si>
+    <t>-Coding prototype manager flow, project-related screen</t>
+  </si>
+  <si>
+    <t>-Review usecase detail, continue coding prototype</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -254,7 +260,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -262,7 +268,7 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -414,8 +420,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -423,7 +429,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -453,20 +471,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,10 +566,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +600,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,22 +775,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF3" sqref="BF3:BJ8"/>
+      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF27" sqref="BF27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:77" ht="0.75" customHeight="1">
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -804,8 +808,8 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -818,13 +822,13 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
@@ -867,13 +871,13 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
       <c r="AV2" s="8" t="s">
         <v>34</v>
       </c>
@@ -917,9 +921,9 @@
       <c r="BX2" s="8"/>
       <c r="BY2" s="8"/>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:77">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -929,11 +933,11 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
@@ -976,11 +980,11 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
       <c r="AV3" s="9" t="s">
         <v>55</v>
       </c>
@@ -1018,19 +1022,19 @@
       <c r="BX3" s="9"/>
       <c r="BY3" s="9"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
+    <row r="4" spans="1:77">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1061,11 +1065,11 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1097,19 +1101,19 @@
       <c r="BX4" s="9"/>
       <c r="BY4" s="9"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23"/>
+    <row r="5" spans="1:77">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1140,11 +1144,11 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
@@ -1176,19 +1180,19 @@
       <c r="BX5" s="9"/>
       <c r="BY5" s="9"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
+    <row r="6" spans="1:77">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1219,11 +1223,11 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
@@ -1255,19 +1259,19 @@
       <c r="BX6" s="9"/>
       <c r="BY6" s="9"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:77">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1298,11 +1302,11 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
@@ -1334,19 +1338,19 @@
       <c r="BX7" s="9"/>
       <c r="BY7" s="9"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
+    <row r="8" spans="1:77">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1377,11 +1381,11 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
@@ -1413,9 +1417,9 @@
       <c r="BX8" s="9"/>
       <c r="BY8" s="9"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:77">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9"/>
@@ -1423,11 +1427,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1456,13 +1460,13 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="13"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="17"/>
       <c r="AL9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1470,13 +1474,13 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="10" t="s">
+      <c r="AQ9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
       <c r="AV9" s="9" t="s">
         <v>40</v>
       </c>
@@ -1512,19 +1516,19 @@
       <c r="BX9" s="9"/>
       <c r="BY9" s="9"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:77">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1545,21 +1549,21 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="16"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="20"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
@@ -1591,19 +1595,19 @@
       <c r="BX10" s="9"/>
       <c r="BY10" s="9"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:77">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1624,21 +1628,21 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="16"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="20"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -1670,19 +1674,19 @@
       <c r="BX11" s="9"/>
       <c r="BY11" s="9"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
+    <row r="12" spans="1:77">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1703,21 +1707,21 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="16"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="20"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
@@ -1749,19 +1753,19 @@
       <c r="BX12" s="9"/>
       <c r="BY12" s="9"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
+    <row r="13" spans="1:77">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1782,21 +1786,21 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="16"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
@@ -1828,19 +1832,19 @@
       <c r="BX13" s="9"/>
       <c r="BY13" s="9"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:77">
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1861,21 +1865,21 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="19"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="23"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1907,24 +1911,24 @@
       <c r="BX14" s="9"/>
       <c r="BY14" s="9"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="1:77">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="20" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="9"/>
@@ -1936,42 +1940,42 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="11" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="20" t="s">
+      <c r="AB15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="20" t="s">
+      <c r="AG15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="20" t="s">
+      <c r="AL15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="22" t="s">
+      <c r="AQ15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="20" t="s">
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="AW15" s="9"/>
@@ -2004,19 +2008,19 @@
       <c r="BX15" s="9"/>
       <c r="BY15" s="9"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:77">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2047,11 +2051,11 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
@@ -2083,19 +2087,19 @@
       <c r="BX16" s="9"/>
       <c r="BY16" s="9"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:77">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2126,11 +2130,11 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
@@ -2162,19 +2166,19 @@
       <c r="BX17" s="9"/>
       <c r="BY17" s="9"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:77">
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2205,11 +2209,11 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
@@ -2241,19 +2245,19 @@
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
+    <row r="19" spans="1:77">
+      <c r="A19" s="7"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2284,11 +2288,11 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
@@ -2320,19 +2324,19 @@
       <c r="BX19" s="9"/>
       <c r="BY19" s="9"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
+    <row r="20" spans="1:77">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2363,11 +2367,11 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
@@ -2399,9 +2403,9 @@
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="1:77">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2411,13 +2415,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2460,13 +2464,13 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-      <c r="AQ21" s="21" t="s">
+      <c r="AQ21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
       <c r="AV21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2474,12 +2478,16 @@
       <c r="AX21" s="9"/>
       <c r="AY21" s="9"/>
       <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
+      <c r="BA21" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="BB21" s="9"/>
       <c r="BC21" s="9"/>
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
+      <c r="BF21" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="BG21" s="9"/>
       <c r="BH21" s="9"/>
       <c r="BI21" s="9"/>
@@ -2500,19 +2508,19 @@
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
+    <row r="22" spans="1:77">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2543,11 +2551,11 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
@@ -2579,19 +2587,19 @@
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:77">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2622,11 +2630,11 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
@@ -2658,19 +2666,19 @@
       <c r="BX23" s="9"/>
       <c r="BY23" s="9"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
+    <row r="24" spans="1:77">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2701,11 +2709,11 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
@@ -2737,19 +2745,19 @@
       <c r="BX24" s="9"/>
       <c r="BY24" s="9"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="23"/>
+    <row r="25" spans="1:77">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2780,11 +2788,11 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -2816,19 +2824,19 @@
       <c r="BX25" s="9"/>
       <c r="BY25" s="9"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="23"/>
+    <row r="26" spans="1:77">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2859,11 +2867,11 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
@@ -2897,6 +2905,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="H15:L20"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="H3:L8"/>
+    <mergeCell ref="M3:Q8"/>
+    <mergeCell ref="R3:V8"/>
+    <mergeCell ref="W3:AA8"/>
+    <mergeCell ref="AB3:AF8"/>
+    <mergeCell ref="AG3:AK8"/>
+    <mergeCell ref="AL3:AP8"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ3:AU8"/>
+    <mergeCell ref="AV3:AZ8"/>
+    <mergeCell ref="BA3:BE8"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="M9:Q14"/>
+    <mergeCell ref="R9:V14"/>
+    <mergeCell ref="W9:AA14"/>
+    <mergeCell ref="AB9:AF14"/>
+    <mergeCell ref="AG9:AK14"/>
+    <mergeCell ref="AL9:AP14"/>
+    <mergeCell ref="BA9:BE14"/>
+    <mergeCell ref="AV9:AZ14"/>
+    <mergeCell ref="AB21:AF26"/>
+    <mergeCell ref="AG21:AK26"/>
+    <mergeCell ref="AL21:AP26"/>
+    <mergeCell ref="AQ9:AU14"/>
+    <mergeCell ref="M15:Q20"/>
+    <mergeCell ref="AQ21:AU26"/>
+    <mergeCell ref="AV21:AZ26"/>
+    <mergeCell ref="BA21:BE26"/>
+    <mergeCell ref="AQ15:AU20"/>
+    <mergeCell ref="AV15:AZ20"/>
+    <mergeCell ref="BA15:BE20"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="AL15:AP20"/>
+    <mergeCell ref="R15:V20"/>
+    <mergeCell ref="W15:AA20"/>
+    <mergeCell ref="AB15:AF20"/>
+    <mergeCell ref="AG15:AK20"/>
+    <mergeCell ref="C9:G14"/>
+    <mergeCell ref="C15:G20"/>
+    <mergeCell ref="C21:G26"/>
+    <mergeCell ref="H21:L26"/>
+    <mergeCell ref="M21:Q26"/>
+    <mergeCell ref="R21:V26"/>
+    <mergeCell ref="W21:AA26"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BF3:BJ8"/>
+    <mergeCell ref="BK3:BO8"/>
+    <mergeCell ref="BF9:BJ14"/>
+    <mergeCell ref="BK9:BO14"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="BU2:BY2"/>
     <mergeCell ref="BU3:BY8"/>
@@ -2913,70 +2985,6 @@
     <mergeCell ref="BF21:BJ26"/>
     <mergeCell ref="BK21:BO26"/>
     <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BF3:BJ8"/>
-    <mergeCell ref="BK3:BO8"/>
-    <mergeCell ref="BF9:BJ14"/>
-    <mergeCell ref="BK9:BO14"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="AL15:AP20"/>
-    <mergeCell ref="R15:V20"/>
-    <mergeCell ref="W15:AA20"/>
-    <mergeCell ref="AB15:AF20"/>
-    <mergeCell ref="AG15:AK20"/>
-    <mergeCell ref="C9:G14"/>
-    <mergeCell ref="C15:G20"/>
-    <mergeCell ref="C21:G26"/>
-    <mergeCell ref="H21:L26"/>
-    <mergeCell ref="M21:Q26"/>
-    <mergeCell ref="R21:V26"/>
-    <mergeCell ref="W21:AA26"/>
-    <mergeCell ref="AV21:AZ26"/>
-    <mergeCell ref="BA21:BE26"/>
-    <mergeCell ref="AQ15:AU20"/>
-    <mergeCell ref="AV15:AZ20"/>
-    <mergeCell ref="BA15:BE20"/>
-    <mergeCell ref="AB21:AF26"/>
-    <mergeCell ref="AG21:AK26"/>
-    <mergeCell ref="AL21:AP26"/>
-    <mergeCell ref="AQ9:AU14"/>
-    <mergeCell ref="M15:Q20"/>
-    <mergeCell ref="AQ21:AU26"/>
-    <mergeCell ref="AV3:AZ8"/>
-    <mergeCell ref="BA3:BE8"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="M9:Q14"/>
-    <mergeCell ref="R9:V14"/>
-    <mergeCell ref="W9:AA14"/>
-    <mergeCell ref="AB9:AF14"/>
-    <mergeCell ref="AG9:AK14"/>
-    <mergeCell ref="AL9:AP14"/>
-    <mergeCell ref="BA9:BE14"/>
-    <mergeCell ref="AV9:AZ14"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="H3:L8"/>
-    <mergeCell ref="M3:Q8"/>
-    <mergeCell ref="R3:V8"/>
-    <mergeCell ref="W3:AA8"/>
-    <mergeCell ref="AB3:AF8"/>
-    <mergeCell ref="AG3:AK8"/>
-    <mergeCell ref="AL3:AP8"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ3:AU8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G8"/>
-    <mergeCell ref="H15:L20"/>
-    <mergeCell ref="AQ2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2984,24 +2992,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3075" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Mai</t>
   </si>
@@ -236,23 +236,31 @@
   <si>
     <t>-Review usecase detail, continue coding prototype</t>
   </si>
+  <si>
+    <t>- code html: listEmpForEva.jsp, evaluateEmp.jsp
+- fix editCriterion.jsp</t>
+  </si>
+  <si>
+    <t>- Viet usecase detail: Add criterion, Edit criterion, Remove criterion
+- Ho tro viet report 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -260,7 +268,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +276,7 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -420,8 +428,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -429,19 +437,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -471,8 +467,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,9 +574,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,6 +609,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,22 +785,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF27" sqref="BF27"/>
+      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA15" sqref="BA15:BE20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="0.75" customHeight="1">
+    <row r="1" spans="1:77" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -808,8 +818,8 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -822,13 +832,13 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
@@ -871,13 +881,13 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
       <c r="AV2" s="8" t="s">
         <v>34</v>
       </c>
@@ -921,9 +931,9 @@
       <c r="BX2" s="8"/>
       <c r="BY2" s="8"/>
     </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -933,11 +943,11 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
@@ -980,11 +990,11 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
       <c r="AV3" s="9" t="s">
         <v>55</v>
       </c>
@@ -1022,19 +1032,19 @@
       <c r="BX3" s="9"/>
       <c r="BY3" s="9"/>
     </row>
-    <row r="4" spans="1:77">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1065,11 +1075,11 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1101,19 +1111,19 @@
       <c r="BX4" s="9"/>
       <c r="BY4" s="9"/>
     </row>
-    <row r="5" spans="1:77">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1144,11 +1154,11 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
@@ -1180,19 +1190,19 @@
       <c r="BX5" s="9"/>
       <c r="BY5" s="9"/>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1223,11 +1233,11 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
@@ -1259,19 +1269,19 @@
       <c r="BX6" s="9"/>
       <c r="BY6" s="9"/>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1302,11 +1312,11 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
@@ -1338,19 +1348,19 @@
       <c r="BX7" s="9"/>
       <c r="BY7" s="9"/>
     </row>
-    <row r="8" spans="1:77">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1381,11 +1391,11 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
@@ -1417,9 +1427,9 @@
       <c r="BX8" s="9"/>
       <c r="BY8" s="9"/>
     </row>
-    <row r="9" spans="1:77">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9"/>
@@ -1427,11 +1437,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1460,13 +1470,13 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="15" t="s">
+      <c r="AG9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="17"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="13"/>
       <c r="AL9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1474,13 +1484,13 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="13" t="s">
+      <c r="AQ9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
       <c r="AV9" s="9" t="s">
         <v>40</v>
       </c>
@@ -1516,19 +1526,19 @@
       <c r="BX9" s="9"/>
       <c r="BY9" s="9"/>
     </row>
-    <row r="10" spans="1:77">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1549,21 +1559,21 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="20"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="16"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
@@ -1595,19 +1605,19 @@
       <c r="BX10" s="9"/>
       <c r="BY10" s="9"/>
     </row>
-    <row r="11" spans="1:77">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1628,21 +1638,21 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="20"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="16"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -1674,19 +1684,19 @@
       <c r="BX11" s="9"/>
       <c r="BY11" s="9"/>
     </row>
-    <row r="12" spans="1:77">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1707,21 +1717,21 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="20"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="16"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
@@ -1753,19 +1763,19 @@
       <c r="BX12" s="9"/>
       <c r="BY12" s="9"/>
     </row>
-    <row r="13" spans="1:77">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1786,21 +1796,21 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="20"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="16"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
@@ -1832,19 +1842,19 @@
       <c r="BX13" s="9"/>
       <c r="BY13" s="9"/>
     </row>
-    <row r="14" spans="1:77">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1865,21 +1875,21 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="19"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1911,24 +1921,24 @@
       <c r="BX14" s="9"/>
       <c r="BY14" s="9"/>
     </row>
-    <row r="15" spans="1:77">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="11" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="20" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="9"/>
@@ -1940,54 +1950,58 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="11" t="s">
+      <c r="W15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="11" t="s">
+      <c r="AB15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="11" t="s">
+      <c r="AG15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="11" t="s">
+      <c r="AL15" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="14" t="s">
+      <c r="AQ15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="11" t="s">
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
+      <c r="BA15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="BB15" s="9"/>
       <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
+      <c r="BF15" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="BG15" s="9"/>
       <c r="BH15" s="9"/>
       <c r="BI15" s="9"/>
@@ -2008,19 +2022,19 @@
       <c r="BX15" s="9"/>
       <c r="BY15" s="9"/>
     </row>
-    <row r="16" spans="1:77">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2051,11 +2065,11 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
@@ -2087,19 +2101,19 @@
       <c r="BX16" s="9"/>
       <c r="BY16" s="9"/>
     </row>
-    <row r="17" spans="1:77">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2130,11 +2144,11 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
@@ -2166,19 +2180,19 @@
       <c r="BX17" s="9"/>
       <c r="BY17" s="9"/>
     </row>
-    <row r="18" spans="1:77">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2209,11 +2223,11 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
@@ -2245,19 +2259,19 @@
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
     </row>
-    <row r="19" spans="1:77">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2288,11 +2302,11 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
@@ -2324,19 +2338,19 @@
       <c r="BX19" s="9"/>
       <c r="BY19" s="9"/>
     </row>
-    <row r="20" spans="1:77">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2367,11 +2381,11 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
@@ -2403,9 +2417,9 @@
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
     </row>
-    <row r="21" spans="1:77">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2415,13 +2429,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2464,13 +2478,13 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-      <c r="AQ21" s="12" t="s">
+      <c r="AQ21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
       <c r="AV21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2508,19 +2522,19 @@
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
     </row>
-    <row r="22" spans="1:77">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2551,11 +2565,11 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
@@ -2587,19 +2601,19 @@
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
     </row>
-    <row r="23" spans="1:77">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2630,11 +2644,11 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
@@ -2666,19 +2680,19 @@
       <c r="BX23" s="9"/>
       <c r="BY23" s="9"/>
     </row>
-    <row r="24" spans="1:77">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2709,11 +2723,11 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
@@ -2745,19 +2759,19 @@
       <c r="BX24" s="9"/>
       <c r="BY24" s="9"/>
     </row>
-    <row r="25" spans="1:77">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2788,11 +2802,11 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -2824,19 +2838,19 @@
       <c r="BX25" s="9"/>
       <c r="BY25" s="9"/>
     </row>
-    <row r="26" spans="1:77">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2867,11 +2881,11 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
@@ -2905,11 +2919,65 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G8"/>
-    <mergeCell ref="H15:L20"/>
-    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BU3:BY8"/>
+    <mergeCell ref="BU9:BY14"/>
+    <mergeCell ref="BU15:BY20"/>
+    <mergeCell ref="BU21:BY26"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="BP3:BT8"/>
+    <mergeCell ref="BP9:BT14"/>
+    <mergeCell ref="BP15:BT20"/>
+    <mergeCell ref="BP21:BT26"/>
+    <mergeCell ref="BF15:BJ20"/>
+    <mergeCell ref="BK15:BO20"/>
+    <mergeCell ref="BF21:BJ26"/>
+    <mergeCell ref="BK21:BO26"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BF3:BJ8"/>
+    <mergeCell ref="BK3:BO8"/>
+    <mergeCell ref="BF9:BJ14"/>
+    <mergeCell ref="BK9:BO14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="AL15:AP20"/>
+    <mergeCell ref="R15:V20"/>
+    <mergeCell ref="W15:AA20"/>
+    <mergeCell ref="AB15:AF20"/>
+    <mergeCell ref="AG15:AK20"/>
+    <mergeCell ref="C9:G14"/>
+    <mergeCell ref="C15:G20"/>
+    <mergeCell ref="C21:G26"/>
+    <mergeCell ref="H21:L26"/>
+    <mergeCell ref="M21:Q26"/>
+    <mergeCell ref="R21:V26"/>
+    <mergeCell ref="W21:AA26"/>
+    <mergeCell ref="AV21:AZ26"/>
+    <mergeCell ref="BA21:BE26"/>
+    <mergeCell ref="AQ15:AU20"/>
+    <mergeCell ref="AV15:AZ20"/>
+    <mergeCell ref="BA15:BE20"/>
+    <mergeCell ref="AB21:AF26"/>
+    <mergeCell ref="AG21:AK26"/>
+    <mergeCell ref="AL21:AP26"/>
+    <mergeCell ref="AQ9:AU14"/>
+    <mergeCell ref="M15:Q20"/>
+    <mergeCell ref="AQ21:AU26"/>
+    <mergeCell ref="AV3:AZ8"/>
+    <mergeCell ref="BA3:BE8"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="M9:Q14"/>
+    <mergeCell ref="R9:V14"/>
+    <mergeCell ref="W9:AA14"/>
+    <mergeCell ref="AB9:AF14"/>
+    <mergeCell ref="AG9:AK14"/>
+    <mergeCell ref="AL9:AP14"/>
+    <mergeCell ref="BA9:BE14"/>
+    <mergeCell ref="AV9:AZ14"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BE2"/>
     <mergeCell ref="H3:L8"/>
@@ -2926,65 +2994,11 @@
     <mergeCell ref="AG2:AK2"/>
     <mergeCell ref="AL2:AP2"/>
     <mergeCell ref="AQ3:AU8"/>
-    <mergeCell ref="AV3:AZ8"/>
-    <mergeCell ref="BA3:BE8"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="M9:Q14"/>
-    <mergeCell ref="R9:V14"/>
-    <mergeCell ref="W9:AA14"/>
-    <mergeCell ref="AB9:AF14"/>
-    <mergeCell ref="AG9:AK14"/>
-    <mergeCell ref="AL9:AP14"/>
-    <mergeCell ref="BA9:BE14"/>
-    <mergeCell ref="AV9:AZ14"/>
-    <mergeCell ref="AB21:AF26"/>
-    <mergeCell ref="AG21:AK26"/>
-    <mergeCell ref="AL21:AP26"/>
-    <mergeCell ref="AQ9:AU14"/>
-    <mergeCell ref="M15:Q20"/>
-    <mergeCell ref="AQ21:AU26"/>
-    <mergeCell ref="AV21:AZ26"/>
-    <mergeCell ref="BA21:BE26"/>
-    <mergeCell ref="AQ15:AU20"/>
-    <mergeCell ref="AV15:AZ20"/>
-    <mergeCell ref="BA15:BE20"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="AL15:AP20"/>
-    <mergeCell ref="R15:V20"/>
-    <mergeCell ref="W15:AA20"/>
-    <mergeCell ref="AB15:AF20"/>
-    <mergeCell ref="AG15:AK20"/>
-    <mergeCell ref="C9:G14"/>
-    <mergeCell ref="C15:G20"/>
-    <mergeCell ref="C21:G26"/>
-    <mergeCell ref="H21:L26"/>
-    <mergeCell ref="M21:Q26"/>
-    <mergeCell ref="R21:V26"/>
-    <mergeCell ref="W21:AA26"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BF3:BJ8"/>
-    <mergeCell ref="BK3:BO8"/>
-    <mergeCell ref="BF9:BJ14"/>
-    <mergeCell ref="BK9:BO14"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BU3:BY8"/>
-    <mergeCell ref="BU9:BY14"/>
-    <mergeCell ref="BU15:BY20"/>
-    <mergeCell ref="BU21:BY26"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="BP3:BT8"/>
-    <mergeCell ref="BP9:BT14"/>
-    <mergeCell ref="BP15:BT20"/>
-    <mergeCell ref="BP21:BT26"/>
-    <mergeCell ref="BF15:BJ20"/>
-    <mergeCell ref="BK15:BO20"/>
-    <mergeCell ref="BF21:BJ26"/>
-    <mergeCell ref="BK21:BO26"/>
-    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="H15:L20"/>
+    <mergeCell ref="AQ2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2992,24 +3006,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Mai</t>
   </si>
@@ -243,6 +243,10 @@
   <si>
     <t>- Viet usecase detail: Add criterion, Edit criterion, Remove criterion
 - Ho tro viet report 2</t>
+  </si>
+  <si>
+    <t>-Edit all timesheet pages
+-Add records to database</t>
   </si>
 </sst>
 </file>
@@ -428,8 +432,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -437,7 +441,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -467,20 +483,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA15" sqref="BA15:BE20"/>
+      <selection pane="topRight" activeCell="BF9" sqref="BF9:BJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +823,7 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -832,13 +836,13 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
@@ -881,13 +885,13 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
       <c r="AV2" s="8" t="s">
         <v>34</v>
       </c>
@@ -932,8 +936,8 @@
       <c r="BY2" s="8"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -943,11 +947,11 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
@@ -990,11 +994,11 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
       <c r="AV3" s="9" t="s">
         <v>55</v>
       </c>
@@ -1033,18 +1037,18 @@
       <c r="BY3" s="9"/>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1075,11 +1079,11 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1112,18 +1116,18 @@
       <c r="BY4" s="9"/>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1154,11 +1158,11 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
@@ -1191,18 +1195,18 @@
       <c r="BY5" s="9"/>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1233,11 +1237,11 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
@@ -1270,18 +1274,18 @@
       <c r="BY6" s="9"/>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1312,11 +1316,11 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
@@ -1349,18 +1353,18 @@
       <c r="BY7" s="9"/>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1391,11 +1395,11 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
@@ -1428,8 +1432,8 @@
       <c r="BY8" s="9"/>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9"/>
@@ -1437,11 +1441,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1470,13 +1474,13 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="13"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="17"/>
       <c r="AL9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1484,13 +1488,13 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="10" t="s">
+      <c r="AQ9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
       <c r="AV9" s="9" t="s">
         <v>40</v>
       </c>
@@ -1505,7 +1509,9 @@
       <c r="BC9" s="9"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
-      <c r="BF9" s="9"/>
+      <c r="BF9" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9"/>
       <c r="BI9" s="9"/>
@@ -1527,18 +1533,18 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1559,21 +1565,21 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="16"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="20"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
@@ -1606,18 +1612,18 @@
       <c r="BY10" s="9"/>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1638,21 +1644,21 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="16"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="20"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -1685,18 +1691,18 @@
       <c r="BY11" s="9"/>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1717,21 +1723,21 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="16"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="20"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
@@ -1764,18 +1770,18 @@
       <c r="BY12" s="9"/>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1796,21 +1802,21 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="16"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
@@ -1843,18 +1849,18 @@
       <c r="BY13" s="9"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1875,21 +1881,21 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="19"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="23"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1922,23 +1928,23 @@
       <c r="BY14" s="9"/>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="20" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="9"/>
@@ -1950,56 +1956,56 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="10" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="20" t="s">
+      <c r="AB15" s="10" t="s">
         <v>42</v>
       </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="20" t="s">
+      <c r="AG15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="20" t="s">
+      <c r="AL15" s="10" t="s">
         <v>45</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="22" t="s">
+      <c r="AQ15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="20" t="s">
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="10" t="s">
         <v>46</v>
       </c>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
-      <c r="BA15" s="20" t="s">
+      <c r="BA15" s="10" t="s">
         <v>61</v>
       </c>
       <c r="BB15" s="9"/>
       <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
-      <c r="BF15" s="20" t="s">
+      <c r="BF15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BG15" s="9"/>
@@ -2023,18 +2029,18 @@
       <c r="BY15" s="9"/>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2065,11 +2071,11 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
@@ -2102,18 +2108,18 @@
       <c r="BY16" s="9"/>
     </row>
     <row r="17" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2144,11 +2150,11 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
@@ -2181,18 +2187,18 @@
       <c r="BY17" s="9"/>
     </row>
     <row r="18" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2223,11 +2229,11 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
@@ -2260,18 +2266,18 @@
       <c r="BY18" s="9"/>
     </row>
     <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2302,11 +2308,11 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
@@ -2339,18 +2345,18 @@
       <c r="BY19" s="9"/>
     </row>
     <row r="20" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2381,11 +2387,11 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
@@ -2418,8 +2424,8 @@
       <c r="BY20" s="9"/>
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2429,13 +2435,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2478,13 +2484,13 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-      <c r="AQ21" s="21" t="s">
+      <c r="AQ21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
       <c r="AV21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2523,18 +2529,18 @@
       <c r="BY21" s="9"/>
     </row>
     <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2565,11 +2571,11 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
@@ -2602,18 +2608,18 @@
       <c r="BY22" s="9"/>
     </row>
     <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2644,11 +2650,11 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
@@ -2681,18 +2687,18 @@
       <c r="BY23" s="9"/>
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2723,11 +2729,11 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
@@ -2760,18 +2766,18 @@
       <c r="BY24" s="9"/>
     </row>
     <row r="25" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2802,11 +2808,11 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -2839,18 +2845,18 @@
       <c r="BY25" s="9"/>
     </row>
     <row r="26" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2881,11 +2887,11 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
@@ -2919,6 +2925,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="H15:L20"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="H3:L8"/>
+    <mergeCell ref="M3:Q8"/>
+    <mergeCell ref="R3:V8"/>
+    <mergeCell ref="W3:AA8"/>
+    <mergeCell ref="AB3:AF8"/>
+    <mergeCell ref="AG3:AK8"/>
+    <mergeCell ref="AL3:AP8"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ3:AU8"/>
+    <mergeCell ref="AV3:AZ8"/>
+    <mergeCell ref="BA3:BE8"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="M9:Q14"/>
+    <mergeCell ref="R9:V14"/>
+    <mergeCell ref="W9:AA14"/>
+    <mergeCell ref="AB9:AF14"/>
+    <mergeCell ref="AG9:AK14"/>
+    <mergeCell ref="AL9:AP14"/>
+    <mergeCell ref="BA9:BE14"/>
+    <mergeCell ref="AV9:AZ14"/>
+    <mergeCell ref="AB21:AF26"/>
+    <mergeCell ref="AG21:AK26"/>
+    <mergeCell ref="AL21:AP26"/>
+    <mergeCell ref="AQ9:AU14"/>
+    <mergeCell ref="M15:Q20"/>
+    <mergeCell ref="AQ21:AU26"/>
+    <mergeCell ref="AV21:AZ26"/>
+    <mergeCell ref="BA21:BE26"/>
+    <mergeCell ref="AQ15:AU20"/>
+    <mergeCell ref="AV15:AZ20"/>
+    <mergeCell ref="BA15:BE20"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="AL15:AP20"/>
+    <mergeCell ref="R15:V20"/>
+    <mergeCell ref="W15:AA20"/>
+    <mergeCell ref="AB15:AF20"/>
+    <mergeCell ref="AG15:AK20"/>
+    <mergeCell ref="C9:G14"/>
+    <mergeCell ref="C15:G20"/>
+    <mergeCell ref="C21:G26"/>
+    <mergeCell ref="H21:L26"/>
+    <mergeCell ref="M21:Q26"/>
+    <mergeCell ref="R21:V26"/>
+    <mergeCell ref="W21:AA26"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BF3:BJ8"/>
+    <mergeCell ref="BK3:BO8"/>
+    <mergeCell ref="BF9:BJ14"/>
+    <mergeCell ref="BK9:BO14"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="BU2:BY2"/>
     <mergeCell ref="BU3:BY8"/>
@@ -2935,70 +3005,6 @@
     <mergeCell ref="BF21:BJ26"/>
     <mergeCell ref="BK21:BO26"/>
     <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BF3:BJ8"/>
-    <mergeCell ref="BK3:BO8"/>
-    <mergeCell ref="BF9:BJ14"/>
-    <mergeCell ref="BK9:BO14"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="AL15:AP20"/>
-    <mergeCell ref="R15:V20"/>
-    <mergeCell ref="W15:AA20"/>
-    <mergeCell ref="AB15:AF20"/>
-    <mergeCell ref="AG15:AK20"/>
-    <mergeCell ref="C9:G14"/>
-    <mergeCell ref="C15:G20"/>
-    <mergeCell ref="C21:G26"/>
-    <mergeCell ref="H21:L26"/>
-    <mergeCell ref="M21:Q26"/>
-    <mergeCell ref="R21:V26"/>
-    <mergeCell ref="W21:AA26"/>
-    <mergeCell ref="AV21:AZ26"/>
-    <mergeCell ref="BA21:BE26"/>
-    <mergeCell ref="AQ15:AU20"/>
-    <mergeCell ref="AV15:AZ20"/>
-    <mergeCell ref="BA15:BE20"/>
-    <mergeCell ref="AB21:AF26"/>
-    <mergeCell ref="AG21:AK26"/>
-    <mergeCell ref="AL21:AP26"/>
-    <mergeCell ref="AQ9:AU14"/>
-    <mergeCell ref="M15:Q20"/>
-    <mergeCell ref="AQ21:AU26"/>
-    <mergeCell ref="AV3:AZ8"/>
-    <mergeCell ref="BA3:BE8"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="M9:Q14"/>
-    <mergeCell ref="R9:V14"/>
-    <mergeCell ref="W9:AA14"/>
-    <mergeCell ref="AB9:AF14"/>
-    <mergeCell ref="AG9:AK14"/>
-    <mergeCell ref="AL9:AP14"/>
-    <mergeCell ref="BA9:BE14"/>
-    <mergeCell ref="AV9:AZ14"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="H3:L8"/>
-    <mergeCell ref="M3:Q8"/>
-    <mergeCell ref="R3:V8"/>
-    <mergeCell ref="W3:AA8"/>
-    <mergeCell ref="AB3:AF8"/>
-    <mergeCell ref="AG3:AK8"/>
-    <mergeCell ref="AL3:AP8"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ3:AU8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G8"/>
-    <mergeCell ref="H15:L20"/>
-    <mergeCell ref="AQ2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Other/Task Sheet.xlsx
+++ b/Documents/Other/Task Sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Mai</t>
   </si>
@@ -248,23 +248,44 @@
     <t>-Edit all timesheet pages
 -Add records to database</t>
   </si>
+  <si>
+    <t>-Planning schedule, re-design project flow</t>
+  </si>
+  <si>
+    <t>-Analyze new business</t>
+  </si>
+  <si>
+    <t>-Analyze new business, create usecase detail</t>
+  </si>
+  <si>
+    <t>Chủ nhật - 07/06/2015</t>
+  </si>
+  <si>
+    <t>-Analyze new business, review 27 usecase detail</t>
+  </si>
+  <si>
+    <t>Thứ 2 - 08/06/2015</t>
+  </si>
+  <si>
+    <t>-Prepare chart js, how to create chart, re-design project flow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -272,7 +293,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +301,7 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -432,8 +453,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -441,19 +462,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -483,8 +492,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,10 +599,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,7 +633,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -789,22 +808,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:EG26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF9" sqref="BF9:BJ14"/>
+      <pane xSplit="2" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CE21" sqref="CE21:CI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="0.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:137" ht="0.75" customHeight="1">
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -822,8 +841,8 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:137" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -836,13 +855,13 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
@@ -885,13 +904,13 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
       <c r="AV2" s="8" t="s">
         <v>34</v>
       </c>
@@ -934,10 +953,74 @@
       <c r="BW2" s="8"/>
       <c r="BX2" s="8"/>
       <c r="BY2" s="8"/>
+      <c r="BZ2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8"/>
+      <c r="DK2" s="8"/>
+      <c r="DL2" s="8"/>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8"/>
+      <c r="DQ2" s="8"/>
+      <c r="DR2" s="8"/>
+      <c r="DS2" s="8"/>
+      <c r="DT2" s="8"/>
+      <c r="DU2" s="8"/>
+      <c r="DV2" s="8"/>
+      <c r="DW2" s="8"/>
+      <c r="DX2" s="8"/>
+      <c r="DY2" s="8"/>
+      <c r="DZ2" s="8"/>
+      <c r="EA2" s="8"/>
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="8"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:137">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -947,11 +1030,11 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
@@ -994,11 +1077,11 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
       <c r="AV3" s="9" t="s">
         <v>55</v>
       </c>
@@ -1035,20 +1118,80 @@
       <c r="BW3" s="9"/>
       <c r="BX3" s="9"/>
       <c r="BY3" s="9"/>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9"/>
+      <c r="CN3" s="9"/>
+      <c r="CO3" s="9"/>
+      <c r="CP3" s="9"/>
+      <c r="CQ3" s="9"/>
+      <c r="CR3" s="9"/>
+      <c r="CS3" s="9"/>
+      <c r="CT3" s="9"/>
+      <c r="CU3" s="9"/>
+      <c r="CV3" s="9"/>
+      <c r="CW3" s="9"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="9"/>
+      <c r="DD3" s="9"/>
+      <c r="DE3" s="9"/>
+      <c r="DF3" s="9"/>
+      <c r="DG3" s="9"/>
+      <c r="DH3" s="9"/>
+      <c r="DI3" s="9"/>
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9"/>
+      <c r="DL3" s="9"/>
+      <c r="DM3" s="9"/>
+      <c r="DN3" s="9"/>
+      <c r="DO3" s="9"/>
+      <c r="DP3" s="9"/>
+      <c r="DQ3" s="9"/>
+      <c r="DR3" s="9"/>
+      <c r="DS3" s="9"/>
+      <c r="DT3" s="9"/>
+      <c r="DU3" s="9"/>
+      <c r="DV3" s="9"/>
+      <c r="DW3" s="9"/>
+      <c r="DX3" s="9"/>
+      <c r="DY3" s="9"/>
+      <c r="DZ3" s="9"/>
+      <c r="EA3" s="9"/>
+      <c r="EB3" s="9"/>
+      <c r="EC3" s="9"/>
+      <c r="ED3" s="9"/>
+      <c r="EE3" s="9"/>
+      <c r="EF3" s="9"/>
+      <c r="EG3" s="9"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:137">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -1079,11 +1222,11 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
@@ -1114,20 +1257,80 @@
       <c r="BW4" s="9"/>
       <c r="BX4" s="9"/>
       <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="9"/>
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
+      <c r="CL4" s="9"/>
+      <c r="CM4" s="9"/>
+      <c r="CN4" s="9"/>
+      <c r="CO4" s="9"/>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="9"/>
+      <c r="CR4" s="9"/>
+      <c r="CS4" s="9"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="9"/>
+      <c r="CW4" s="9"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DD4" s="9"/>
+      <c r="DE4" s="9"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="9"/>
+      <c r="DI4" s="9"/>
+      <c r="DJ4" s="9"/>
+      <c r="DK4" s="9"/>
+      <c r="DL4" s="9"/>
+      <c r="DM4" s="9"/>
+      <c r="DN4" s="9"/>
+      <c r="DO4" s="9"/>
+      <c r="DP4" s="9"/>
+      <c r="DQ4" s="9"/>
+      <c r="DR4" s="9"/>
+      <c r="DS4" s="9"/>
+      <c r="DT4" s="9"/>
+      <c r="DU4" s="9"/>
+      <c r="DV4" s="9"/>
+      <c r="DW4" s="9"/>
+      <c r="DX4" s="9"/>
+      <c r="DY4" s="9"/>
+      <c r="DZ4" s="9"/>
+      <c r="EA4" s="9"/>
+      <c r="EB4" s="9"/>
+      <c r="EC4" s="9"/>
+      <c r="ED4" s="9"/>
+      <c r="EE4" s="9"/>
+      <c r="EF4" s="9"/>
+      <c r="EG4" s="9"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:137">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -1158,11 +1361,11 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
@@ -1193,20 +1396,80 @@
       <c r="BW5" s="9"/>
       <c r="BX5" s="9"/>
       <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="9"/>
+      <c r="CM5" s="9"/>
+      <c r="CN5" s="9"/>
+      <c r="CO5" s="9"/>
+      <c r="CP5" s="9"/>
+      <c r="CQ5" s="9"/>
+      <c r="CR5" s="9"/>
+      <c r="CS5" s="9"/>
+      <c r="CT5" s="9"/>
+      <c r="CU5" s="9"/>
+      <c r="CV5" s="9"/>
+      <c r="CW5" s="9"/>
+      <c r="CX5" s="9"/>
+      <c r="CY5" s="9"/>
+      <c r="CZ5" s="9"/>
+      <c r="DA5" s="9"/>
+      <c r="DB5" s="9"/>
+      <c r="DC5" s="9"/>
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="9"/>
+      <c r="DF5" s="9"/>
+      <c r="DG5" s="9"/>
+      <c r="DH5" s="9"/>
+      <c r="DI5" s="9"/>
+      <c r="DJ5" s="9"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="9"/>
+      <c r="DM5" s="9"/>
+      <c r="DN5" s="9"/>
+      <c r="DO5" s="9"/>
+      <c r="DP5" s="9"/>
+      <c r="DQ5" s="9"/>
+      <c r="DR5" s="9"/>
+      <c r="DS5" s="9"/>
+      <c r="DT5" s="9"/>
+      <c r="DU5" s="9"/>
+      <c r="DV5" s="9"/>
+      <c r="DW5" s="9"/>
+      <c r="DX5" s="9"/>
+      <c r="DY5" s="9"/>
+      <c r="DZ5" s="9"/>
+      <c r="EA5" s="9"/>
+      <c r="EB5" s="9"/>
+      <c r="EC5" s="9"/>
+      <c r="ED5" s="9"/>
+      <c r="EE5" s="9"/>
+      <c r="EF5" s="9"/>
+      <c r="EG5" s="9"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:137">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1237,11 +1500,11 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
@@ -1272,20 +1535,80 @@
       <c r="BW6" s="9"/>
       <c r="BX6" s="9"/>
       <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9"/>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+      <c r="CL6" s="9"/>
+      <c r="CM6" s="9"/>
+      <c r="CN6" s="9"/>
+      <c r="CO6" s="9"/>
+      <c r="CP6" s="9"/>
+      <c r="CQ6" s="9"/>
+      <c r="CR6" s="9"/>
+      <c r="CS6" s="9"/>
+      <c r="CT6" s="9"/>
+      <c r="CU6" s="9"/>
+      <c r="CV6" s="9"/>
+      <c r="CW6" s="9"/>
+      <c r="CX6" s="9"/>
+      <c r="CY6" s="9"/>
+      <c r="CZ6" s="9"/>
+      <c r="DA6" s="9"/>
+      <c r="DB6" s="9"/>
+      <c r="DC6" s="9"/>
+      <c r="DD6" s="9"/>
+      <c r="DE6" s="9"/>
+      <c r="DF6" s="9"/>
+      <c r="DG6" s="9"/>
+      <c r="DH6" s="9"/>
+      <c r="DI6" s="9"/>
+      <c r="DJ6" s="9"/>
+      <c r="DK6" s="9"/>
+      <c r="DL6" s="9"/>
+      <c r="DM6" s="9"/>
+      <c r="DN6" s="9"/>
+      <c r="DO6" s="9"/>
+      <c r="DP6" s="9"/>
+      <c r="DQ6" s="9"/>
+      <c r="DR6" s="9"/>
+      <c r="DS6" s="9"/>
+      <c r="DT6" s="9"/>
+      <c r="DU6" s="9"/>
+      <c r="DV6" s="9"/>
+      <c r="DW6" s="9"/>
+      <c r="DX6" s="9"/>
+      <c r="DY6" s="9"/>
+      <c r="DZ6" s="9"/>
+      <c r="EA6" s="9"/>
+      <c r="EB6" s="9"/>
+      <c r="EC6" s="9"/>
+      <c r="ED6" s="9"/>
+      <c r="EE6" s="9"/>
+      <c r="EF6" s="9"/>
+      <c r="EG6" s="9"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:137">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1316,11 +1639,11 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
@@ -1351,20 +1674,80 @@
       <c r="BW7" s="9"/>
       <c r="BX7" s="9"/>
       <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
+      <c r="CF7" s="9"/>
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="9"/>
+      <c r="CI7" s="9"/>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
+      <c r="CL7" s="9"/>
+      <c r="CM7" s="9"/>
+      <c r="CN7" s="9"/>
+      <c r="CO7" s="9"/>
+      <c r="CP7" s="9"/>
+      <c r="CQ7" s="9"/>
+      <c r="CR7" s="9"/>
+      <c r="CS7" s="9"/>
+      <c r="CT7" s="9"/>
+      <c r="CU7" s="9"/>
+      <c r="CV7" s="9"/>
+      <c r="CW7" s="9"/>
+      <c r="CX7" s="9"/>
+      <c r="CY7" s="9"/>
+      <c r="CZ7" s="9"/>
+      <c r="DA7" s="9"/>
+      <c r="DB7" s="9"/>
+      <c r="DC7" s="9"/>
+      <c r="DD7" s="9"/>
+      <c r="DE7" s="9"/>
+      <c r="DF7" s="9"/>
+      <c r="DG7" s="9"/>
+      <c r="DH7" s="9"/>
+      <c r="DI7" s="9"/>
+      <c r="DJ7" s="9"/>
+      <c r="DK7" s="9"/>
+      <c r="DL7" s="9"/>
+      <c r="DM7" s="9"/>
+      <c r="DN7" s="9"/>
+      <c r="DO7" s="9"/>
+      <c r="DP7" s="9"/>
+      <c r="DQ7" s="9"/>
+      <c r="DR7" s="9"/>
+      <c r="DS7" s="9"/>
+      <c r="DT7" s="9"/>
+      <c r="DU7" s="9"/>
+      <c r="DV7" s="9"/>
+      <c r="DW7" s="9"/>
+      <c r="DX7" s="9"/>
+      <c r="DY7" s="9"/>
+      <c r="DZ7" s="9"/>
+      <c r="EA7" s="9"/>
+      <c r="EB7" s="9"/>
+      <c r="EC7" s="9"/>
+      <c r="ED7" s="9"/>
+      <c r="EE7" s="9"/>
+      <c r="EF7" s="9"/>
+      <c r="EG7" s="9"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:137">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1395,11 +1778,11 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
@@ -1430,10 +1813,70 @@
       <c r="BW8" s="9"/>
       <c r="BX8" s="9"/>
       <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+      <c r="CL8" s="9"/>
+      <c r="CM8" s="9"/>
+      <c r="CN8" s="9"/>
+      <c r="CO8" s="9"/>
+      <c r="CP8" s="9"/>
+      <c r="CQ8" s="9"/>
+      <c r="CR8" s="9"/>
+      <c r="CS8" s="9"/>
+      <c r="CT8" s="9"/>
+      <c r="CU8" s="9"/>
+      <c r="CV8" s="9"/>
+      <c r="CW8" s="9"/>
+      <c r="CX8" s="9"/>
+      <c r="CY8" s="9"/>
+      <c r="CZ8" s="9"/>
+      <c r="DA8" s="9"/>
+      <c r="DB8" s="9"/>
+      <c r="DC8" s="9"/>
+      <c r="DD8" s="9"/>
+      <c r="DE8" s="9"/>
+      <c r="DF8" s="9"/>
+      <c r="DG8" s="9"/>
+      <c r="DH8" s="9"/>
+      <c r="DI8" s="9"/>
+      <c r="DJ8" s="9"/>
+      <c r="DK8" s="9"/>
+      <c r="DL8" s="9"/>
+      <c r="DM8" s="9"/>
+      <c r="DN8" s="9"/>
+      <c r="DO8" s="9"/>
+      <c r="DP8" s="9"/>
+      <c r="DQ8" s="9"/>
+      <c r="DR8" s="9"/>
+      <c r="DS8" s="9"/>
+      <c r="DT8" s="9"/>
+      <c r="DU8" s="9"/>
+      <c r="DV8" s="9"/>
+      <c r="DW8" s="9"/>
+      <c r="DX8" s="9"/>
+      <c r="DY8" s="9"/>
+      <c r="DZ8" s="9"/>
+      <c r="EA8" s="9"/>
+      <c r="EB8" s="9"/>
+      <c r="EC8" s="9"/>
+      <c r="ED8" s="9"/>
+      <c r="EE8" s="9"/>
+      <c r="EF8" s="9"/>
+      <c r="EG8" s="9"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:137">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9"/>
@@ -1441,11 +1884,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1474,13 +1917,13 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="15" t="s">
+      <c r="AG9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="17"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="13"/>
       <c r="AL9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1488,13 +1931,13 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="13" t="s">
+      <c r="AQ9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
       <c r="AV9" s="9" t="s">
         <v>40</v>
       </c>
@@ -1531,20 +1974,80 @@
       <c r="BW9" s="9"/>
       <c r="BX9" s="9"/>
       <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+      <c r="CL9" s="9"/>
+      <c r="CM9" s="9"/>
+      <c r="CN9" s="9"/>
+      <c r="CO9" s="9"/>
+      <c r="CP9" s="9"/>
+      <c r="CQ9" s="9"/>
+      <c r="CR9" s="9"/>
+      <c r="CS9" s="9"/>
+      <c r="CT9" s="9"/>
+      <c r="CU9" s="9"/>
+      <c r="CV9" s="9"/>
+      <c r="CW9" s="9"/>
+      <c r="CX9" s="9"/>
+      <c r="CY9" s="9"/>
+      <c r="CZ9" s="9"/>
+      <c r="DA9" s="9"/>
+      <c r="DB9" s="9"/>
+      <c r="DC9" s="9"/>
+      <c r="DD9" s="9"/>
+      <c r="DE9" s="9"/>
+      <c r="DF9" s="9"/>
+      <c r="DG9" s="9"/>
+      <c r="DH9" s="9"/>
+      <c r="DI9" s="9"/>
+      <c r="DJ9" s="9"/>
+      <c r="DK9" s="9"/>
+      <c r="DL9" s="9"/>
+      <c r="DM9" s="9"/>
+      <c r="DN9" s="9"/>
+      <c r="DO9" s="9"/>
+      <c r="DP9" s="9"/>
+      <c r="DQ9" s="9"/>
+      <c r="DR9" s="9"/>
+      <c r="DS9" s="9"/>
+      <c r="DT9" s="9"/>
+      <c r="DU9" s="9"/>
+      <c r="DV9" s="9"/>
+      <c r="DW9" s="9"/>
+      <c r="DX9" s="9"/>
+      <c r="DY9" s="9"/>
+      <c r="DZ9" s="9"/>
+      <c r="EA9" s="9"/>
+      <c r="EB9" s="9"/>
+      <c r="EC9" s="9"/>
+      <c r="ED9" s="9"/>
+      <c r="EE9" s="9"/>
+      <c r="EF9" s="9"/>
+      <c r="EG9" s="9"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:137">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1565,21 +2068,21 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="20"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="16"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
@@ -1610,20 +2113,80 @@
       <c r="BW10" s="9"/>
       <c r="BX10" s="9"/>
       <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="9"/>
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
+      <c r="CG10" s="9"/>
+      <c r="CH10" s="9"/>
+      <c r="CI10" s="9"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+      <c r="CL10" s="9"/>
+      <c r="CM10" s="9"/>
+      <c r="CN10" s="9"/>
+      <c r="CO10" s="9"/>
+      <c r="CP10" s="9"/>
+      <c r="CQ10" s="9"/>
+      <c r="CR10" s="9"/>
+      <c r="CS10" s="9"/>
+      <c r="CT10" s="9"/>
+      <c r="CU10" s="9"/>
+      <c r="CV10" s="9"/>
+      <c r="CW10" s="9"/>
+      <c r="CX10" s="9"/>
+      <c r="CY10" s="9"/>
+      <c r="CZ10" s="9"/>
+      <c r="DA10" s="9"/>
+      <c r="DB10" s="9"/>
+      <c r="DC10" s="9"/>
+      <c r="DD10" s="9"/>
+      <c r="DE10" s="9"/>
+      <c r="DF10" s="9"/>
+      <c r="DG10" s="9"/>
+      <c r="DH10" s="9"/>
+      <c r="DI10" s="9"/>
+      <c r="DJ10" s="9"/>
+      <c r="DK10" s="9"/>
+      <c r="DL10" s="9"/>
+      <c r="DM10" s="9"/>
+      <c r="DN10" s="9"/>
+      <c r="DO10" s="9"/>
+      <c r="DP10" s="9"/>
+      <c r="DQ10" s="9"/>
+      <c r="DR10" s="9"/>
+      <c r="DS10" s="9"/>
+      <c r="DT10" s="9"/>
+      <c r="DU10" s="9"/>
+      <c r="DV10" s="9"/>
+      <c r="DW10" s="9"/>
+      <c r="DX10" s="9"/>
+      <c r="DY10" s="9"/>
+      <c r="DZ10" s="9"/>
+      <c r="EA10" s="9"/>
+      <c r="EB10" s="9"/>
+      <c r="EC10" s="9"/>
+      <c r="ED10" s="9"/>
+      <c r="EE10" s="9"/>
+      <c r="EF10" s="9"/>
+      <c r="EG10" s="9"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:137">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1644,21 +2207,21 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="20"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="16"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -1689,20 +2252,80 @@
       <c r="BW11" s="9"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="9"/>
+      <c r="BZ11" s="9"/>
+      <c r="CA11" s="9"/>
+      <c r="CB11" s="9"/>
+      <c r="CC11" s="9"/>
+      <c r="CD11" s="9"/>
+      <c r="CE11" s="9"/>
+      <c r="CF11" s="9"/>
+      <c r="CG11" s="9"/>
+      <c r="CH11" s="9"/>
+      <c r="CI11" s="9"/>
+      <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
+      <c r="CL11" s="9"/>
+      <c r="CM11" s="9"/>
+      <c r="CN11" s="9"/>
+      <c r="CO11" s="9"/>
+      <c r="CP11" s="9"/>
+      <c r="CQ11" s="9"/>
+      <c r="CR11" s="9"/>
+      <c r="CS11" s="9"/>
+      <c r="CT11" s="9"/>
+      <c r="CU11" s="9"/>
+      <c r="CV11" s="9"/>
+      <c r="CW11" s="9"/>
+      <c r="CX11" s="9"/>
+      <c r="CY11" s="9"/>
+      <c r="CZ11" s="9"/>
+      <c r="DA11" s="9"/>
+      <c r="DB11" s="9"/>
+      <c r="DC11" s="9"/>
+      <c r="DD11" s="9"/>
+      <c r="DE11" s="9"/>
+      <c r="DF11" s="9"/>
+      <c r="DG11" s="9"/>
+      <c r="DH11" s="9"/>
+      <c r="DI11" s="9"/>
+      <c r="DJ11" s="9"/>
+      <c r="DK11" s="9"/>
+      <c r="DL11" s="9"/>
+      <c r="DM11" s="9"/>
+      <c r="DN11" s="9"/>
+      <c r="DO11" s="9"/>
+      <c r="DP11" s="9"/>
+      <c r="DQ11" s="9"/>
+      <c r="DR11" s="9"/>
+      <c r="DS11" s="9"/>
+      <c r="DT11" s="9"/>
+      <c r="DU11" s="9"/>
+      <c r="DV11" s="9"/>
+      <c r="DW11" s="9"/>
+      <c r="DX11" s="9"/>
+      <c r="DY11" s="9"/>
+      <c r="DZ11" s="9"/>
+      <c r="EA11" s="9"/>
+      <c r="EB11" s="9"/>
+      <c r="EC11" s="9"/>
+      <c r="ED11" s="9"/>
+      <c r="EE11" s="9"/>
+      <c r="EF11" s="9"/>
+      <c r="EG11" s="9"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:137">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1723,21 +2346,21 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="20"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="16"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
@@ -1768,20 +2391,80 @@
       <c r="BW12" s="9"/>
       <c r="BX12" s="9"/>
       <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+      <c r="CO12" s="9"/>
+      <c r="CP12" s="9"/>
+      <c r="CQ12" s="9"/>
+      <c r="CR12" s="9"/>
+      <c r="CS12" s="9"/>
+      <c r="CT12" s="9"/>
+      <c r="CU12" s="9"/>
+      <c r="CV12" s="9"/>
+      <c r="CW12" s="9"/>
+      <c r="CX12" s="9"/>
+      <c r="CY12" s="9"/>
+      <c r="CZ12" s="9"/>
+      <c r="DA12" s="9"/>
+      <c r="DB12" s="9"/>
+      <c r="DC12" s="9"/>
+      <c r="DD12" s="9"/>
+      <c r="DE12" s="9"/>
+      <c r="DF12" s="9"/>
+      <c r="DG12" s="9"/>
+      <c r="DH12" s="9"/>
+      <c r="DI12" s="9"/>
+      <c r="DJ12" s="9"/>
+      <c r="DK12" s="9"/>
+      <c r="DL12" s="9"/>
+      <c r="DM12" s="9"/>
+      <c r="DN12" s="9"/>
+      <c r="DO12" s="9"/>
+      <c r="DP12" s="9"/>
+      <c r="DQ12" s="9"/>
+      <c r="DR12" s="9"/>
+      <c r="DS12" s="9"/>
+      <c r="DT12" s="9"/>
+      <c r="DU12" s="9"/>
+      <c r="DV12" s="9"/>
+      <c r="DW12" s="9"/>
+      <c r="DX12" s="9"/>
+      <c r="DY12" s="9"/>
+      <c r="DZ12" s="9"/>
+      <c r="EA12" s="9"/>
+      <c r="EB12" s="9"/>
+      <c r="EC12" s="9"/>
+      <c r="ED12" s="9"/>
+      <c r="EE12" s="9"/>
+      <c r="EF12" s="9"/>
+      <c r="EG12" s="9"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:137">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1802,21 +2485,21 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="20"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="16"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
@@ -1847,20 +2530,80 @@
       <c r="BW13" s="9"/>
       <c r="BX13" s="9"/>
       <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
+      <c r="CM13" s="9"/>
+      <c r="CN13" s="9"/>
+      <c r="CO13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CQ13" s="9"/>
+      <c r="CR13" s="9"/>
+      <c r="CS13" s="9"/>
+      <c r="CT13" s="9"/>
+      <c r="CU13" s="9"/>
+      <c r="CV13" s="9"/>
+      <c r="CW13" s="9"/>
+      <c r="CX13" s="9"/>
+      <c r="CY13" s="9"/>
+      <c r="CZ13" s="9"/>
+      <c r="DA13" s="9"/>
+      <c r="DB13" s="9"/>
+      <c r="DC13" s="9"/>
+      <c r="DD13" s="9"/>
+      <c r="DE13" s="9"/>
+      <c r="DF13" s="9"/>
+      <c r="DG13" s="9"/>
+      <c r="DH13" s="9"/>
+      <c r="DI13" s="9"/>
+      <c r="DJ13" s="9"/>
+      <c r="DK13" s="9"/>
+      <c r="DL13" s="9"/>
+      <c r="DM13" s="9"/>
+      <c r="DN13" s="9"/>
+      <c r="DO13" s="9"/>
+      <c r="DP13" s="9"/>
+      <c r="DQ13" s="9"/>
+      <c r="DR13" s="9"/>
+      <c r="DS13" s="9"/>
+      <c r="DT13" s="9"/>
+      <c r="DU13" s="9"/>
+      <c r="DV13" s="9"/>
+      <c r="DW13" s="9"/>
+      <c r="DX13" s="9"/>
+      <c r="DY13" s="9"/>
+      <c r="DZ13" s="9"/>
+      <c r="EA13" s="9"/>
+      <c r="EB13" s="9"/>
+      <c r="EC13" s="9"/>
+      <c r="ED13" s="9"/>
+      <c r="EE13" s="9"/>
+      <c r="EF13" s="9"/>
+      <c r="EG13" s="9"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:137">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1881,21 +2624,21 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="19"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
@@ -1926,25 +2669,85 @@
       <c r="BW14" s="9"/>
       <c r="BX14" s="9"/>
       <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
+      <c r="CT14" s="9"/>
+      <c r="CU14" s="9"/>
+      <c r="CV14" s="9"/>
+      <c r="CW14" s="9"/>
+      <c r="CX14" s="9"/>
+      <c r="CY14" s="9"/>
+      <c r="CZ14" s="9"/>
+      <c r="DA14" s="9"/>
+      <c r="DB14" s="9"/>
+      <c r="DC14" s="9"/>
+      <c r="DD14" s="9"/>
+      <c r="DE14" s="9"/>
+      <c r="DF14" s="9"/>
+      <c r="DG14" s="9"/>
+      <c r="DH14" s="9"/>
+      <c r="DI14" s="9"/>
+      <c r="DJ14" s="9"/>
+      <c r="DK14" s="9"/>
+      <c r="DL14" s="9"/>
+      <c r="DM14" s="9"/>
+      <c r="DN14" s="9"/>
+      <c r="DO14" s="9"/>
+      <c r="DP14" s="9"/>
+      <c r="DQ14" s="9"/>
+      <c r="DR14" s="9"/>
+      <c r="DS14" s="9"/>
+      <c r="DT14" s="9"/>
+      <c r="DU14" s="9"/>
+      <c r="DV14" s="9"/>
+      <c r="DW14" s="9"/>
+      <c r="DX14" s="9"/>
+      <c r="DY14" s="9"/>
+      <c r="DZ14" s="9"/>
+      <c r="EA14" s="9"/>
+      <c r="EB14" s="9"/>
+      <c r="EC14" s="9"/>
+      <c r="ED14" s="9"/>
+      <c r="EE14" s="9"/>
+      <c r="EF14" s="9"/>
+      <c r="EG14" s="9"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:137">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="10" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="20" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="9"/>
@@ -1956,56 +2759,56 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="10" t="s">
+      <c r="W15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="10" t="s">
+      <c r="AB15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="10" t="s">
+      <c r="AG15" s="20" t="s">
         <v>44</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
-      <c r="AL15" s="10" t="s">
+      <c r="AL15" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
       <c r="AP15" s="9"/>
-      <c r="AQ15" s="14" t="s">
+      <c r="AQ15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="10" t="s">
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="20" t="s">
         <v>46</v>
       </c>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
-      <c r="BA15" s="10" t="s">
+      <c r="BA15" s="20" t="s">
         <v>61</v>
       </c>
       <c r="BB15" s="9"/>
       <c r="BC15" s="9"/>
       <c r="BD15" s="9"/>
       <c r="BE15" s="9"/>
-      <c r="BF15" s="10" t="s">
+      <c r="BF15" s="20" t="s">
         <v>60</v>
       </c>
       <c r="BG15" s="9"/>
@@ -2027,20 +2830,80 @@
       <c r="BW15" s="9"/>
       <c r="BX15" s="9"/>
       <c r="BY15" s="9"/>
+      <c r="BZ15" s="9"/>
+      <c r="CA15" s="9"/>
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="9"/>
+      <c r="CI15" s="9"/>
+      <c r="CJ15" s="9"/>
+      <c r="CK15" s="9"/>
+      <c r="CL15" s="9"/>
+      <c r="CM15" s="9"/>
+      <c r="CN15" s="9"/>
+      <c r="CO15" s="9"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
+      <c r="CS15" s="9"/>
+      <c r="CT15" s="9"/>
+      <c r="CU15" s="9"/>
+      <c r="CV15" s="9"/>
+      <c r="CW15" s="9"/>
+      <c r="CX15" s="9"/>
+      <c r="CY15" s="9"/>
+      <c r="CZ15" s="9"/>
+      <c r="DA15" s="9"/>
+      <c r="DB15" s="9"/>
+      <c r="DC15" s="9"/>
+      <c r="DD15" s="9"/>
+      <c r="DE15" s="9"/>
+      <c r="DF15" s="9"/>
+      <c r="DG15" s="9"/>
+      <c r="DH15" s="9"/>
+      <c r="DI15" s="9"/>
+      <c r="DJ15" s="9"/>
+      <c r="DK15" s="9"/>
+      <c r="DL15" s="9"/>
+      <c r="DM15" s="9"/>
+      <c r="DN15" s="9"/>
+      <c r="DO15" s="9"/>
+      <c r="DP15" s="9"/>
+      <c r="DQ15" s="9"/>
+      <c r="DR15" s="9"/>
+      <c r="DS15" s="9"/>
+      <c r="DT15" s="9"/>
+      <c r="DU15" s="9"/>
+      <c r="DV15" s="9"/>
+      <c r="DW15" s="9"/>
+      <c r="DX15" s="9"/>
+      <c r="DY15" s="9"/>
+      <c r="DZ15" s="9"/>
+      <c r="EA15" s="9"/>
+      <c r="EB15" s="9"/>
+      <c r="EC15" s="9"/>
+      <c r="ED15" s="9"/>
+      <c r="EE15" s="9"/>
+      <c r="EF15" s="9"/>
+      <c r="EG15" s="9"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:137">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2071,11 +2934,11 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
@@ -2106,20 +2969,80 @@
       <c r="BW16" s="9"/>
       <c r="BX16" s="9"/>
       <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
+      <c r="CT16" s="9"/>
+      <c r="CU16" s="9"/>
+      <c r="CV16" s="9"/>
+      <c r="CW16" s="9"/>
+      <c r="CX16" s="9"/>
+      <c r="CY16" s="9"/>
+      <c r="CZ16" s="9"/>
+      <c r="DA16" s="9"/>
+      <c r="DB16" s="9"/>
+      <c r="DC16" s="9"/>
+      <c r="DD16" s="9"/>
+      <c r="DE16" s="9"/>
+      <c r="DF16" s="9"/>
+      <c r="DG16" s="9"/>
+      <c r="DH16" s="9"/>
+      <c r="DI16" s="9"/>
+      <c r="DJ16" s="9"/>
+      <c r="DK16" s="9"/>
+      <c r="DL16" s="9"/>
+      <c r="DM16" s="9"/>
+      <c r="DN16" s="9"/>
+      <c r="DO16" s="9"/>
+      <c r="DP16" s="9"/>
+      <c r="DQ16" s="9"/>
+      <c r="DR16" s="9"/>
+      <c r="DS16" s="9"/>
+      <c r="DT16" s="9"/>
+      <c r="DU16" s="9"/>
+      <c r="DV16" s="9"/>
+      <c r="DW16" s="9"/>
+      <c r="DX16" s="9"/>
+      <c r="DY16" s="9"/>
+      <c r="DZ16" s="9"/>
+      <c r="EA16" s="9"/>
+      <c r="EB16" s="9"/>
+      <c r="EC16" s="9"/>
+      <c r="ED16" s="9"/>
+      <c r="EE16" s="9"/>
+      <c r="EF16" s="9"/>
+      <c r="EG16" s="9"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:137">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2150,11 +3073,11 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
@@ -2185,20 +3108,80 @@
       <c r="BW17" s="9"/>
       <c r="BX17" s="9"/>
       <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="9"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
+      <c r="CL17" s="9"/>
+      <c r="CM17" s="9"/>
+      <c r="CN17" s="9"/>
+      <c r="CO17" s="9"/>
+      <c r="CP17" s="9"/>
+      <c r="CQ17" s="9"/>
+      <c r="CR17" s="9"/>
+      <c r="CS17" s="9"/>
+      <c r="CT17" s="9"/>
+      <c r="CU17" s="9"/>
+      <c r="CV17" s="9"/>
+      <c r="CW17" s="9"/>
+      <c r="CX17" s="9"/>
+      <c r="CY17" s="9"/>
+      <c r="CZ17" s="9"/>
+      <c r="DA17" s="9"/>
+      <c r="DB17" s="9"/>
+      <c r="DC17" s="9"/>
+      <c r="DD17" s="9"/>
+      <c r="DE17" s="9"/>
+      <c r="DF17" s="9"/>
+      <c r="DG17" s="9"/>
+      <c r="DH17" s="9"/>
+      <c r="DI17" s="9"/>
+      <c r="DJ17" s="9"/>
+      <c r="DK17" s="9"/>
+      <c r="DL17" s="9"/>
+      <c r="DM17" s="9"/>
+      <c r="DN17" s="9"/>
+      <c r="DO17" s="9"/>
+      <c r="DP17" s="9"/>
+      <c r="DQ17" s="9"/>
+      <c r="DR17" s="9"/>
+      <c r="DS17" s="9"/>
+      <c r="DT17" s="9"/>
+      <c r="DU17" s="9"/>
+      <c r="DV17" s="9"/>
+      <c r="DW17" s="9"/>
+      <c r="DX17" s="9"/>
+      <c r="DY17" s="9"/>
+      <c r="DZ17" s="9"/>
+      <c r="EA17" s="9"/>
+      <c r="EB17" s="9"/>
+      <c r="EC17" s="9"/>
+      <c r="ED17" s="9"/>
+      <c r="EE17" s="9"/>
+      <c r="EF17" s="9"/>
+      <c r="EG17" s="9"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:137">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2229,11 +3212,11 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
@@ -2264,20 +3247,80 @@
       <c r="BW18" s="9"/>
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+      <c r="CL18" s="9"/>
+      <c r="CM18" s="9"/>
+      <c r="CN18" s="9"/>
+      <c r="CO18" s="9"/>
+      <c r="CP18" s="9"/>
+      <c r="CQ18" s="9"/>
+      <c r="CR18" s="9"/>
+      <c r="CS18" s="9"/>
+      <c r="CT18" s="9"/>
+      <c r="CU18" s="9"/>
+      <c r="CV18" s="9"/>
+      <c r="CW18" s="9"/>
+      <c r="CX18" s="9"/>
+      <c r="CY18" s="9"/>
+      <c r="CZ18" s="9"/>
+      <c r="DA18" s="9"/>
+      <c r="DB18" s="9"/>
+      <c r="DC18" s="9"/>
+      <c r="DD18" s="9"/>
+      <c r="DE18" s="9"/>
+      <c r="DF18" s="9"/>
+      <c r="DG18" s="9"/>
+      <c r="DH18" s="9"/>
+      <c r="DI18" s="9"/>
+      <c r="DJ18" s="9"/>
+      <c r="DK18" s="9"/>
+      <c r="DL18" s="9"/>
+      <c r="DM18" s="9"/>
+      <c r="DN18" s="9"/>
+      <c r="DO18" s="9"/>
+      <c r="DP18" s="9"/>
+      <c r="DQ18" s="9"/>
+      <c r="DR18" s="9"/>
+      <c r="DS18" s="9"/>
+      <c r="DT18" s="9"/>
+      <c r="DU18" s="9"/>
+      <c r="DV18" s="9"/>
+      <c r="DW18" s="9"/>
+      <c r="DX18" s="9"/>
+      <c r="DY18" s="9"/>
+      <c r="DZ18" s="9"/>
+      <c r="EA18" s="9"/>
+      <c r="EB18" s="9"/>
+      <c r="EC18" s="9"/>
+      <c r="ED18" s="9"/>
+      <c r="EE18" s="9"/>
+      <c r="EF18" s="9"/>
+      <c r="EG18" s="9"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:137">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2308,11 +3351,11 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
@@ -2343,20 +3386,80 @@
       <c r="BW19" s="9"/>
       <c r="BX19" s="9"/>
       <c r="BY19" s="9"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="9"/>
+      <c r="CI19" s="9"/>
+      <c r="CJ19" s="9"/>
+      <c r="CK19" s="9"/>
+      <c r="CL19" s="9"/>
+      <c r="CM19" s="9"/>
+      <c r="CN19" s="9"/>
+      <c r="CO19" s="9"/>
+      <c r="CP19" s="9"/>
+      <c r="CQ19" s="9"/>
+      <c r="CR19" s="9"/>
+      <c r="CS19" s="9"/>
+      <c r="CT19" s="9"/>
+      <c r="CU19" s="9"/>
+      <c r="CV19" s="9"/>
+      <c r="CW19" s="9"/>
+      <c r="CX19" s="9"/>
+      <c r="CY19" s="9"/>
+      <c r="CZ19" s="9"/>
+      <c r="DA19" s="9"/>
+      <c r="DB19" s="9"/>
+      <c r="DC19" s="9"/>
+      <c r="DD19" s="9"/>
+      <c r="DE19" s="9"/>
+      <c r="DF19" s="9"/>
+      <c r="DG19" s="9"/>
+      <c r="DH19" s="9"/>
+      <c r="DI19" s="9"/>
+      <c r="DJ19" s="9"/>
+      <c r="DK19" s="9"/>
+      <c r="DL19" s="9"/>
+      <c r="DM19" s="9"/>
+      <c r="DN19" s="9"/>
+      <c r="DO19" s="9"/>
+      <c r="DP19" s="9"/>
+      <c r="DQ19" s="9"/>
+      <c r="DR19" s="9"/>
+      <c r="DS19" s="9"/>
+      <c r="DT19" s="9"/>
+      <c r="DU19" s="9"/>
+      <c r="DV19" s="9"/>
+      <c r="DW19" s="9"/>
+      <c r="DX19" s="9"/>
+      <c r="DY19" s="9"/>
+      <c r="DZ19" s="9"/>
+      <c r="EA19" s="9"/>
+      <c r="EB19" s="9"/>
+      <c r="EC19" s="9"/>
+      <c r="ED19" s="9"/>
+      <c r="EE19" s="9"/>
+      <c r="EF19" s="9"/>
+      <c r="EG19" s="9"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:137">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2387,11 +3490,11 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
@@ -2422,10 +3525,70 @@
       <c r="BW20" s="9"/>
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+      <c r="CO20" s="9"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
+      <c r="CS20" s="9"/>
+      <c r="CT20" s="9"/>
+      <c r="CU20" s="9"/>
+      <c r="CV20" s="9"/>
+      <c r="CW20" s="9"/>
+      <c r="CX20" s="9"/>
+      <c r="CY20" s="9"/>
+      <c r="CZ20" s="9"/>
+      <c r="DA20" s="9"/>
+      <c r="DB20" s="9"/>
+      <c r="DC20" s="9"/>
+      <c r="DD20" s="9"/>
+      <c r="DE20" s="9"/>
+      <c r="DF20" s="9"/>
+      <c r="DG20" s="9"/>
+      <c r="DH20" s="9"/>
+      <c r="DI20" s="9"/>
+      <c r="DJ20" s="9"/>
+      <c r="DK20" s="9"/>
+      <c r="DL20" s="9"/>
+      <c r="DM20" s="9"/>
+      <c r="DN20" s="9"/>
+      <c r="DO20" s="9"/>
+      <c r="DP20" s="9"/>
+      <c r="DQ20" s="9"/>
+      <c r="DR20" s="9"/>
+      <c r="DS20" s="9"/>
+      <c r="DT20" s="9"/>
+      <c r="DU20" s="9"/>
+      <c r="DV20" s="9"/>
+      <c r="DW20" s="9"/>
+      <c r="DX20" s="9"/>
+      <c r="DY20" s="9"/>
+      <c r="DZ20" s="9"/>
+      <c r="EA20" s="9"/>
+      <c r="EB20" s="9"/>
+      <c r="EC20" s="9"/>
+      <c r="ED20" s="9"/>
+      <c r="EE20" s="9"/>
+      <c r="EF20" s="9"/>
+      <c r="EG20" s="9"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:137">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2435,13 +3598,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2484,13 +3647,13 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
-      <c r="AQ21" s="12" t="s">
+      <c r="AQ21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
       <c r="AV21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2512,35 +3675,105 @@
       <c r="BH21" s="9"/>
       <c r="BI21" s="9"/>
       <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
+      <c r="BK21" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="BL21" s="9"/>
       <c r="BM21" s="9"/>
       <c r="BN21" s="9"/>
       <c r="BO21" s="9"/>
-      <c r="BP21" s="9"/>
+      <c r="BP21" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="BQ21" s="9"/>
       <c r="BR21" s="9"/>
       <c r="BS21" s="9"/>
       <c r="BT21" s="9"/>
-      <c r="BU21" s="9"/>
+      <c r="BU21" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="BV21" s="9"/>
       <c r="BW21" s="9"/>
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
+      <c r="BZ21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+      <c r="CL21" s="9"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+      <c r="CO21" s="9"/>
+      <c r="CP21" s="9"/>
+      <c r="CQ21" s="9"/>
+      <c r="CR21" s="9"/>
+      <c r="CS21" s="9"/>
+      <c r="CT21" s="9"/>
+      <c r="CU21" s="9"/>
+      <c r="CV21" s="9"/>
+      <c r="CW21" s="9"/>
+      <c r="CX21" s="9"/>
+      <c r="CY21" s="9"/>
+      <c r="CZ21" s="9"/>
+      <c r="DA21" s="9"/>
+      <c r="DB21" s="9"/>
+      <c r="DC21" s="9"/>
+      <c r="DD21" s="9"/>
+      <c r="DE21" s="9"/>
+      <c r="DF21" s="9"/>
+      <c r="DG21" s="9"/>
+      <c r="DH21" s="9"/>
+      <c r="DI21" s="9"/>
+      <c r="DJ21" s="9"/>
+      <c r="DK21" s="9"/>
+      <c r="DL21" s="9"/>
+      <c r="DM21" s="9"/>
+      <c r="DN21" s="9"/>
+      <c r="DO21" s="9"/>
+      <c r="DP21" s="9"/>
+      <c r="DQ21" s="9"/>
+      <c r="DR21" s="9"/>
+      <c r="DS21" s="9"/>
+      <c r="DT21" s="9"/>
+      <c r="DU21" s="9"/>
+      <c r="DV21" s="9"/>
+      <c r="DW21" s="9"/>
+      <c r="DX21" s="9"/>
+      <c r="DY21" s="9"/>
+      <c r="DZ21" s="9"/>
+      <c r="EA21" s="9"/>
+      <c r="EB21" s="9"/>
+      <c r="EC21" s="9"/>
+      <c r="ED21" s="9"/>
+      <c r="EE21" s="9"/>
+      <c r="EF21" s="9"/>
+      <c r="EG21" s="9"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11"/>
+    <row r="22" spans="1:137">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2571,11 +3804,11 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
       <c r="AP22" s="9"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
@@ -2606,20 +3839,80 @@
       <c r="BW22" s="9"/>
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
+      <c r="CE22" s="9"/>
+      <c r="CF22" s="9"/>
+      <c r="CG22" s="9"/>
+      <c r="CH22" s="9"/>
+      <c r="CI22" s="9"/>
+      <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
+      <c r="CL22" s="9"/>
+      <c r="CM22" s="9"/>
+      <c r="CN22" s="9"/>
+      <c r="CO22" s="9"/>
+      <c r="CP22" s="9"/>
+      <c r="CQ22" s="9"/>
+      <c r="CR22" s="9"/>
+      <c r="CS22" s="9"/>
+      <c r="CT22" s="9"/>
+      <c r="CU22" s="9"/>
+      <c r="CV22" s="9"/>
+      <c r="CW22" s="9"/>
+      <c r="CX22" s="9"/>
+      <c r="CY22" s="9"/>
+      <c r="CZ22" s="9"/>
+      <c r="DA22" s="9"/>
+      <c r="DB22" s="9"/>
+      <c r="DC22" s="9"/>
+      <c r="DD22" s="9"/>
+      <c r="DE22" s="9"/>
+      <c r="DF22" s="9"/>
+      <c r="DG22" s="9"/>
+      <c r="DH22" s="9"/>
+      <c r="DI22" s="9"/>
+      <c r="DJ22" s="9"/>
+      <c r="DK22" s="9"/>
+      <c r="DL22" s="9"/>
+      <c r="DM22" s="9"/>
+      <c r="DN22" s="9"/>
+      <c r="DO22" s="9"/>
+      <c r="DP22" s="9"/>
+      <c r="DQ22" s="9"/>
+      <c r="DR22" s="9"/>
+      <c r="DS22" s="9"/>
+      <c r="DT22" s="9"/>
+      <c r="DU22" s="9"/>
+      <c r="DV22" s="9"/>
+      <c r="DW22" s="9"/>
+      <c r="DX22" s="9"/>
+      <c r="DY22" s="9"/>
+      <c r="DZ22" s="9"/>
+      <c r="EA22" s="9"/>
+      <c r="EB22" s="9"/>
+      <c r="EC22" s="9"/>
+      <c r="ED22" s="9"/>
+      <c r="EE22" s="9"/>
+      <c r="EF22" s="9"/>
+      <c r="EG22" s="9"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
+    <row r="23" spans="1:137">
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2650,11 +3943,11 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
@@ -2685,20 +3978,80 @@
       <c r="BW23" s="9"/>
       <c r="BX23" s="9"/>
       <c r="BY23" s="9"/>
+      <c r="BZ23" s="9"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+      <c r="CD23" s="9"/>
+      <c r="CE23" s="9"/>
+      <c r="CF23" s="9"/>
+      <c r="CG23" s="9"/>
+      <c r="CH23" s="9"/>
+      <c r="CI23" s="9"/>
+      <c r="CJ23" s="9"/>
+      <c r="CK23" s="9"/>
+      <c r="CL23" s="9"/>
+      <c r="CM23" s="9"/>
+      <c r="CN23" s="9"/>
+      <c r="CO23" s="9"/>
+      <c r="CP23" s="9"/>
+      <c r="CQ23" s="9"/>
+      <c r="CR23" s="9"/>
+      <c r="CS23" s="9"/>
+      <c r="CT23" s="9"/>
+      <c r="CU23" s="9"/>
+      <c r="CV23" s="9"/>
+      <c r="CW23" s="9"/>
+      <c r="CX23" s="9"/>
+      <c r="CY23" s="9"/>
+      <c r="CZ23" s="9"/>
+      <c r="DA23" s="9"/>
+      <c r="DB23" s="9"/>
+      <c r="DC23" s="9"/>
+      <c r="DD23" s="9"/>
+      <c r="DE23" s="9"/>
+      <c r="DF23" s="9"/>
+      <c r="DG23" s="9"/>
+      <c r="DH23" s="9"/>
+      <c r="DI23" s="9"/>
+      <c r="DJ23" s="9"/>
+      <c r="DK23" s="9"/>
+      <c r="DL23" s="9"/>
+      <c r="DM23" s="9"/>
+      <c r="DN23" s="9"/>
+      <c r="DO23" s="9"/>
+      <c r="DP23" s="9"/>
+      <c r="DQ23" s="9"/>
+      <c r="DR23" s="9"/>
+      <c r="DS23" s="9"/>
+      <c r="DT23" s="9"/>
+      <c r="DU23" s="9"/>
+      <c r="DV23" s="9"/>
+      <c r="DW23" s="9"/>
+      <c r="DX23" s="9"/>
+      <c r="DY23" s="9"/>
+      <c r="DZ23" s="9"/>
+      <c r="EA23" s="9"/>
+      <c r="EB23" s="9"/>
+      <c r="EC23" s="9"/>
+      <c r="ED23" s="9"/>
+      <c r="EE23" s="9"/>
+      <c r="EF23" s="9"/>
+      <c r="EG23" s="9"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:137">
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2729,11 +4082,11 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
@@ -2764,20 +4117,80 @@
       <c r="BW24" s="9"/>
       <c r="BX24" s="9"/>
       <c r="BY24" s="9"/>
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+      <c r="CD24" s="9"/>
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="9"/>
+      <c r="CI24" s="9"/>
+      <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
+      <c r="CL24" s="9"/>
+      <c r="CM24" s="9"/>
+      <c r="CN24" s="9"/>
+      <c r="CO24" s="9"/>
+      <c r="CP24" s="9"/>
+      <c r="CQ24" s="9"/>
+      <c r="CR24" s="9"/>
+      <c r="CS24" s="9"/>
+      <c r="CT24" s="9"/>
+      <c r="CU24" s="9"/>
+      <c r="CV24" s="9"/>
+      <c r="CW24" s="9"/>
+      <c r="CX24" s="9"/>
+      <c r="CY24" s="9"/>
+      <c r="CZ24" s="9"/>
+      <c r="DA24" s="9"/>
+      <c r="DB24" s="9"/>
+      <c r="DC24" s="9"/>
+      <c r="DD24" s="9"/>
+      <c r="DE24" s="9"/>
+      <c r="DF24" s="9"/>
+      <c r="DG24" s="9"/>
+      <c r="DH24" s="9"/>
+      <c r="DI24" s="9"/>
+      <c r="DJ24" s="9"/>
+      <c r="DK24" s="9"/>
+      <c r="DL24" s="9"/>
+      <c r="DM24" s="9"/>
+      <c r="DN24" s="9"/>
+      <c r="DO24" s="9"/>
+      <c r="DP24" s="9"/>
+      <c r="DQ24" s="9"/>
+      <c r="DR24" s="9"/>
+      <c r="DS24" s="9"/>
+      <c r="DT24" s="9"/>
+      <c r="DU24" s="9"/>
+      <c r="DV24" s="9"/>
+      <c r="DW24" s="9"/>
+      <c r="DX24" s="9"/>
+      <c r="DY24" s="9"/>
+      <c r="DZ24" s="9"/>
+      <c r="EA24" s="9"/>
+      <c r="EB24" s="9"/>
+      <c r="EC24" s="9"/>
+      <c r="ED24" s="9"/>
+      <c r="EE24" s="9"/>
+      <c r="EF24" s="9"/>
+      <c r="EG24" s="9"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:137">
+      <c r="A25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2808,11 +4221,11 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
@@ -2843,20 +4256,80 @@
       <c r="BW25" s="9"/>
       <c r="BX25" s="9"/>
       <c r="BY25" s="9"/>
+      <c r="BZ25" s="9"/>
+      <c r="CA25" s="9"/>
+      <c r="CB25" s="9"/>
+      <c r="CC25" s="9"/>
+      <c r="CD25" s="9"/>
+      <c r="CE25" s="9"/>
+      <c r="CF25" s="9"/>
+      <c r="CG25" s="9"/>
+      <c r="CH25" s="9"/>
+      <c r="CI25" s="9"/>
+      <c r="CJ25" s="9"/>
+      <c r="CK25" s="9"/>
+      <c r="CL25" s="9"/>
+      <c r="CM25" s="9"/>
+      <c r="CN25" s="9"/>
+      <c r="CO25" s="9"/>
+      <c r="CP25" s="9"/>
+      <c r="CQ25" s="9"/>
+      <c r="CR25" s="9"/>
+      <c r="CS25" s="9"/>
+      <c r="CT25" s="9"/>
+      <c r="CU25" s="9"/>
+      <c r="CV25" s="9"/>
+      <c r="CW25" s="9"/>
+      <c r="CX25" s="9"/>
+      <c r="CY25" s="9"/>
+      <c r="CZ25" s="9"/>
+      <c r="DA25" s="9"/>
+      <c r="DB25" s="9"/>
+      <c r="DC25" s="9"/>
+      <c r="DD25" s="9"/>
+      <c r="DE25" s="9"/>
+      <c r="DF25" s="9"/>
+      <c r="DG25" s="9"/>
+      <c r="DH25" s="9"/>
+      <c r="DI25" s="9"/>
+      <c r="DJ25" s="9"/>
+      <c r="DK25" s="9"/>
+      <c r="DL25" s="9"/>
+      <c r="DM25" s="9"/>
+      <c r="DN25" s="9"/>
+      <c r="DO25" s="9"/>
+      <c r="DP25" s="9"/>
+      <c r="DQ25" s="9"/>
+      <c r="DR25" s="9"/>
+      <c r="DS25" s="9"/>
+      <c r="DT25" s="9"/>
+      <c r="DU25" s="9"/>
+      <c r="DV25" s="9"/>
+      <c r="DW25" s="9"/>
+      <c r="DX25" s="9"/>
+      <c r="DY25" s="9"/>
+      <c r="DZ25" s="9"/>
+      <c r="EA25" s="9"/>
+      <c r="EB25" s="9"/>
+      <c r="EC25" s="9"/>
+      <c r="ED25" s="9"/>
+      <c r="EE25" s="9"/>
+      <c r="EF25" s="9"/>
+      <c r="EG25" s="9"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11"/>
+    <row r="26" spans="1:137">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2887,11 +4360,11 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
       <c r="AX26" s="9"/>
@@ -2922,14 +4395,188 @@
       <c r="BW26" s="9"/>
       <c r="BX26" s="9"/>
       <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+      <c r="CD26" s="9"/>
+      <c r="CE26" s="9"/>
+      <c r="CF26" s="9"/>
+      <c r="CG26" s="9"/>
+      <c r="CH26" s="9"/>
+      <c r="CI26" s="9"/>
+      <c r="CJ26" s="9"/>
+      <c r="CK26" s="9"/>
+      <c r="CL26" s="9"/>
+      <c r="CM26" s="9"/>
+      <c r="CN26" s="9"/>
+      <c r="CO26" s="9"/>
+      <c r="CP26" s="9"/>
+      <c r="CQ26" s="9"/>
+      <c r="CR26" s="9"/>
+      <c r="CS26" s="9"/>
+      <c r="CT26" s="9"/>
+      <c r="CU26" s="9"/>
+      <c r="CV26" s="9"/>
+      <c r="CW26" s="9"/>
+      <c r="CX26" s="9"/>
+      <c r="CY26" s="9"/>
+      <c r="CZ26" s="9"/>
+      <c r="DA26" s="9"/>
+      <c r="DB26" s="9"/>
+      <c r="DC26" s="9"/>
+      <c r="DD26" s="9"/>
+      <c r="DE26" s="9"/>
+      <c r="DF26" s="9"/>
+      <c r="DG26" s="9"/>
+      <c r="DH26" s="9"/>
+      <c r="DI26" s="9"/>
+      <c r="DJ26" s="9"/>
+      <c r="DK26" s="9"/>
+      <c r="DL26" s="9"/>
+      <c r="DM26" s="9"/>
+      <c r="DN26" s="9"/>
+      <c r="DO26" s="9"/>
+      <c r="DP26" s="9"/>
+      <c r="DQ26" s="9"/>
+      <c r="DR26" s="9"/>
+      <c r="DS26" s="9"/>
+      <c r="DT26" s="9"/>
+      <c r="DU26" s="9"/>
+      <c r="DV26" s="9"/>
+      <c r="DW26" s="9"/>
+      <c r="DX26" s="9"/>
+      <c r="DY26" s="9"/>
+      <c r="DZ26" s="9"/>
+      <c r="EA26" s="9"/>
+      <c r="EB26" s="9"/>
+      <c r="EC26" s="9"/>
+      <c r="ED26" s="9"/>
+      <c r="EE26" s="9"/>
+      <c r="EF26" s="9"/>
+      <c r="EG26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G8"/>
-    <mergeCell ref="H15:L20"/>
-    <mergeCell ref="AQ2:AU2"/>
+  <mergeCells count="140">
+    <mergeCell ref="DX21:EB26"/>
+    <mergeCell ref="EC21:EG26"/>
+    <mergeCell ref="CY21:DC26"/>
+    <mergeCell ref="DD21:DH26"/>
+    <mergeCell ref="DI21:DM26"/>
+    <mergeCell ref="DN21:DR26"/>
+    <mergeCell ref="DS21:DW26"/>
+    <mergeCell ref="BZ21:CD26"/>
+    <mergeCell ref="CE21:CI26"/>
+    <mergeCell ref="CJ21:CN26"/>
+    <mergeCell ref="CO21:CS26"/>
+    <mergeCell ref="CT21:CX26"/>
+    <mergeCell ref="DX9:EB14"/>
+    <mergeCell ref="EC9:EG14"/>
+    <mergeCell ref="BZ15:CD20"/>
+    <mergeCell ref="CE15:CI20"/>
+    <mergeCell ref="CJ15:CN20"/>
+    <mergeCell ref="CO15:CS20"/>
+    <mergeCell ref="CT15:CX20"/>
+    <mergeCell ref="CY15:DC20"/>
+    <mergeCell ref="DD15:DH20"/>
+    <mergeCell ref="DI15:DM20"/>
+    <mergeCell ref="DN15:DR20"/>
+    <mergeCell ref="DS15:DW20"/>
+    <mergeCell ref="DX15:EB20"/>
+    <mergeCell ref="EC15:EG20"/>
+    <mergeCell ref="CY9:DC14"/>
+    <mergeCell ref="DD9:DH14"/>
+    <mergeCell ref="DI9:DM14"/>
+    <mergeCell ref="DN9:DR14"/>
+    <mergeCell ref="DS9:DW14"/>
+    <mergeCell ref="BZ9:CD14"/>
+    <mergeCell ref="CE9:CI14"/>
+    <mergeCell ref="CJ9:CN14"/>
+    <mergeCell ref="CO9:CS14"/>
+    <mergeCell ref="CT9:CX14"/>
+    <mergeCell ref="DX2:EB2"/>
+    <mergeCell ref="EC2:EG2"/>
+    <mergeCell ref="BZ3:CD8"/>
+    <mergeCell ref="CE3:CI8"/>
+    <mergeCell ref="CJ3:CN8"/>
+    <mergeCell ref="CO3:CS8"/>
+    <mergeCell ref="CT3:CX8"/>
+    <mergeCell ref="CY3:DC8"/>
+    <mergeCell ref="DD3:DH8"/>
+    <mergeCell ref="DI3:DM8"/>
+    <mergeCell ref="DN3:DR8"/>
+    <mergeCell ref="DS3:DW8"/>
+    <mergeCell ref="DX3:EB8"/>
+    <mergeCell ref="EC3:EG8"/>
+    <mergeCell ref="CY2:DC2"/>
+    <mergeCell ref="DD2:DH2"/>
+    <mergeCell ref="DI2:DM2"/>
+    <mergeCell ref="DN2:DR2"/>
+    <mergeCell ref="DS2:DW2"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="CE2:CI2"/>
+    <mergeCell ref="CJ2:CN2"/>
+    <mergeCell ref="CO2:CS2"/>
+    <mergeCell ref="CT2:CX2"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BU3:BY8"/>
+    <mergeCell ref="BU9:BY14"/>
+    <mergeCell ref="BU15:BY20"/>
+    <mergeCell ref="BU21:BY26"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="BP3:BT8"/>
+    <mergeCell ref="BP9:BT14"/>
+    <mergeCell ref="BP15:BT20"/>
+    <mergeCell ref="BP21:BT26"/>
+    <mergeCell ref="BF15:BJ20"/>
+    <mergeCell ref="BK15:BO20"/>
+    <mergeCell ref="BF21:BJ26"/>
+    <mergeCell ref="BK21:BO26"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BF3:BJ8"/>
+    <mergeCell ref="BK3:BO8"/>
+    <mergeCell ref="BF9:BJ14"/>
+    <mergeCell ref="BK9:BO14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="AL15:AP20"/>
+    <mergeCell ref="R15:V20"/>
+    <mergeCell ref="W15:AA20"/>
+    <mergeCell ref="AB15:AF20"/>
+    <mergeCell ref="AG15:AK20"/>
+    <mergeCell ref="C9:G14"/>
+    <mergeCell ref="C15:G20"/>
+    <mergeCell ref="C21:G26"/>
+    <mergeCell ref="H21:L26"/>
+    <mergeCell ref="M21:Q26"/>
+    <mergeCell ref="R21:V26"/>
+    <mergeCell ref="W21:AA26"/>
+    <mergeCell ref="AV21:AZ26"/>
+    <mergeCell ref="BA21:BE26"/>
+    <mergeCell ref="AQ15:AU20"/>
+    <mergeCell ref="AV15:AZ20"/>
+    <mergeCell ref="BA15:BE20"/>
+    <mergeCell ref="AB21:AF26"/>
+    <mergeCell ref="AG21:AK26"/>
+    <mergeCell ref="AL21:AP26"/>
+    <mergeCell ref="AQ9:AU14"/>
+    <mergeCell ref="M15:Q20"/>
+    <mergeCell ref="AQ21:AU26"/>
+    <mergeCell ref="AV3:AZ8"/>
+    <mergeCell ref="BA3:BE8"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="M9:Q14"/>
+    <mergeCell ref="R9:V14"/>
+    <mergeCell ref="W9:AA14"/>
+    <mergeCell ref="AB9:AF14"/>
+    <mergeCell ref="AG9:AK14"/>
+    <mergeCell ref="AL9:AP14"/>
+    <mergeCell ref="BA9:BE14"/>
+    <mergeCell ref="AV9:AZ14"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BE2"/>
     <mergeCell ref="H3:L8"/>
@@ -2946,65 +4593,11 @@
     <mergeCell ref="AG2:AK2"/>
     <mergeCell ref="AL2:AP2"/>
     <mergeCell ref="AQ3:AU8"/>
-    <mergeCell ref="AV3:AZ8"/>
-    <mergeCell ref="BA3:BE8"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="M9:Q14"/>
-    <mergeCell ref="R9:V14"/>
-    <mergeCell ref="W9:AA14"/>
-    <mergeCell ref="AB9:AF14"/>
-    <mergeCell ref="AG9:AK14"/>
-    <mergeCell ref="AL9:AP14"/>
-    <mergeCell ref="BA9:BE14"/>
-    <mergeCell ref="AV9:AZ14"/>
-    <mergeCell ref="AB21:AF26"/>
-    <mergeCell ref="AG21:AK26"/>
-    <mergeCell ref="AL21:AP26"/>
-    <mergeCell ref="AQ9:AU14"/>
-    <mergeCell ref="M15:Q20"/>
-    <mergeCell ref="AQ21:AU26"/>
-    <mergeCell ref="AV21:AZ26"/>
-    <mergeCell ref="BA21:BE26"/>
-    <mergeCell ref="AQ15:AU20"/>
-    <mergeCell ref="AV15:AZ20"/>
-    <mergeCell ref="BA15:BE20"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="AL15:AP20"/>
-    <mergeCell ref="R15:V20"/>
-    <mergeCell ref="W15:AA20"/>
-    <mergeCell ref="AB15:AF20"/>
-    <mergeCell ref="AG15:AK20"/>
-    <mergeCell ref="C9:G14"/>
-    <mergeCell ref="C15:G20"/>
-    <mergeCell ref="C21:G26"/>
-    <mergeCell ref="H21:L26"/>
-    <mergeCell ref="M21:Q26"/>
-    <mergeCell ref="R21:V26"/>
-    <mergeCell ref="W21:AA26"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BF3:BJ8"/>
-    <mergeCell ref="BK3:BO8"/>
-    <mergeCell ref="BF9:BJ14"/>
-    <mergeCell ref="BK9:BO14"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BU3:BY8"/>
-    <mergeCell ref="BU9:BY14"/>
-    <mergeCell ref="BU15:BY20"/>
-    <mergeCell ref="BU21:BY26"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="BP3:BT8"/>
-    <mergeCell ref="BP9:BT14"/>
-    <mergeCell ref="BP15:BT20"/>
-    <mergeCell ref="BP21:BT26"/>
-    <mergeCell ref="BF15:BJ20"/>
-    <mergeCell ref="BK15:BO20"/>
-    <mergeCell ref="BF21:BJ26"/>
-    <mergeCell ref="BK21:BO26"/>
-    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="H15:L20"/>
+    <mergeCell ref="AQ2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3012,24 +4605,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
